--- a/AfDD_2025_Annex_Table_Tab05.xlsx
+++ b/AfDD_2025_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9510840F-F3DE-4740-9E80-57DA7B4921C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32879C7C-A9FD-48A4-883F-AE44FE2EEFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{83A19114-E0D0-427A-A0C5-0D60253F91FD}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{13766776-CFD5-4448-8131-D1F5888DC765}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
   <si>
     <t>Table 5: Demographic estimates</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
+    <t>..</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -570,7 +570,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,13 +639,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -945,7 +938,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1017,8 +1010,20 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,9 +1034,6 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1042,18 +1044,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1077,28 +1067,28 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,34 +1178,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,22 +1229,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,28 +1289,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,9 +1318,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1616,11 +1606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72202ED-A4B3-4401-A26B-295E0A8206C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA7EA3-DCF7-48F7-B1C6-C5D4D7A37650}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1628,13 +1618,13 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.140625" style="133" customWidth="1"/>
-    <col min="7" max="9" width="14.140625" style="134" customWidth="1"/>
-    <col min="10" max="12" width="14.140625" style="135" customWidth="1"/>
+    <col min="3" max="6" width="14.140625" style="132" customWidth="1"/>
+    <col min="7" max="9" width="14.140625" style="133" customWidth="1"/>
+    <col min="10" max="12" width="14.140625" style="134" customWidth="1"/>
     <col min="13" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1649,7 +1639,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1687,875 +1677,1821 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17">
+        <v>36749.906000000003</v>
+      </c>
+      <c r="D3" s="18">
+        <v>25242.775432999999</v>
+      </c>
+      <c r="E3" s="19">
+        <v>11507.130567</v>
+      </c>
+      <c r="F3" s="17">
+        <v>6014.9438309999996</v>
+      </c>
+      <c r="G3" s="18">
+        <v>8</v>
+      </c>
+      <c r="H3" s="18">
+        <v>9457.2471370000003</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
+        <v>5.3433159999999997</v>
+      </c>
+      <c r="K3" s="21">
+        <v>84.711915000000005</v>
+      </c>
+      <c r="L3" s="22">
+        <v>90.055231000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24">
+        <v>2480.2440000000001</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1807.279395</v>
+      </c>
+      <c r="E4" s="26">
+        <v>672.96460500000001</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="27">
+        <v>6.2270019999999997</v>
+      </c>
+      <c r="K4" s="28">
+        <v>50.638213999999998</v>
+      </c>
+      <c r="L4" s="29">
+        <v>56.865217000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="24">
+        <v>1230.5060000000001</v>
+      </c>
+      <c r="D5" s="31">
+        <v>305.04243700000001</v>
+      </c>
+      <c r="E5" s="32">
+        <v>925.46356300000002</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="27">
+        <v>6.6690189999999996</v>
+      </c>
+      <c r="K5" s="33">
+        <v>54.143991999999997</v>
+      </c>
+      <c r="L5" s="34">
+        <v>60.813011000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24">
+        <v>2311.4720000000002</v>
+      </c>
+      <c r="D6" s="31">
+        <v>703.03420900000003</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1608.4377910000001</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="27">
+        <v>6.2480529999999996</v>
+      </c>
+      <c r="K6" s="33">
+        <v>57.018411999999998</v>
+      </c>
+      <c r="L6" s="34">
+        <v>63.266464999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="24">
+        <v>21104.482</v>
+      </c>
+      <c r="D7" s="31">
+        <v>3857.8993099999998</v>
+      </c>
+      <c r="E7" s="32">
+        <v>17246.582689999999</v>
+      </c>
+      <c r="F7" s="24">
+        <v>987.06794300000001</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1221.960386</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27">
+        <v>4.6220369999999997</v>
+      </c>
+      <c r="K7" s="33">
+        <v>73.658567000000005</v>
+      </c>
+      <c r="L7" s="34">
+        <v>78.280603999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="24">
+        <v>33635.160000000003</v>
+      </c>
+      <c r="D8" s="31">
+        <v>13034.633555</v>
+      </c>
+      <c r="E8" s="32">
+        <v>20600.526445</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2877.396045</v>
+      </c>
+      <c r="G8" s="31">
+        <v>5</v>
+      </c>
+      <c r="H8" s="31">
+        <v>2886.7796170000001</v>
+      </c>
+      <c r="I8" s="32">
+        <v>2</v>
+      </c>
+      <c r="J8" s="27">
+        <v>5.2722300000000004</v>
+      </c>
+      <c r="K8" s="33">
+        <v>85.282494</v>
+      </c>
+      <c r="L8" s="34">
+        <v>90.554723999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="35">
+        <v>2963.0949999999998</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1626.3243219999999</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1336.7706780000001</v>
+      </c>
+      <c r="F9" s="35">
+        <v>494.36863699999998</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="36">
+        <v>6.0392479999999997</v>
+      </c>
+      <c r="K9" s="33">
+        <v>63.061421000000003</v>
+      </c>
+      <c r="L9" s="34">
+        <v>69.100669999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="35">
+        <v>63212.383999999998</v>
+      </c>
+      <c r="D10" s="31">
+        <v>43502.130545</v>
+      </c>
+      <c r="E10" s="32">
+        <v>19710.253454999998</v>
+      </c>
+      <c r="F10" s="35">
+        <v>6313.1748109999999</v>
+      </c>
+      <c r="G10" s="31">
+        <v>9</v>
+      </c>
+      <c r="H10" s="31">
+        <v>23516.572025000001</v>
+      </c>
+      <c r="I10" s="32">
+        <v>6</v>
+      </c>
+      <c r="J10" s="36">
+        <v>9.6663200000000007</v>
+      </c>
+      <c r="K10" s="33">
+        <v>38.701633000000001</v>
+      </c>
+      <c r="L10" s="34">
+        <v>48.367953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="24">
+        <v>20723.965</v>
+      </c>
+      <c r="D11" s="25">
+        <v>9602.4491830000006</v>
+      </c>
+      <c r="E11" s="26">
+        <v>11121.515817</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1373.0808259999999</v>
+      </c>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3233.9698520000002</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
+        <v>3.3820190000000001</v>
+      </c>
+      <c r="K11" s="28">
+        <v>74.724984000000006</v>
+      </c>
+      <c r="L11" s="29">
+        <v>78.107003000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="38">
+        <v>16340.822</v>
+      </c>
+      <c r="D12" s="39">
+        <v>5313.5450899999996</v>
+      </c>
+      <c r="E12" s="40">
+        <v>11027.27691</v>
+      </c>
+      <c r="F12" s="38">
+        <v>914.816686</v>
+      </c>
+      <c r="G12" s="39">
+        <v>2</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1370.742784</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1</v>
+      </c>
+      <c r="J12" s="41">
+        <v>6.5718249999999996</v>
+      </c>
+      <c r="K12" s="42">
+        <v>75.053522999999998</v>
+      </c>
+      <c r="L12" s="43">
+        <v>81.625349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="46">
+        <v>200752.03599999999</v>
+      </c>
+      <c r="D13" s="47">
+        <v>104995.11347900001</v>
+      </c>
+      <c r="E13" s="48">
+        <v>95756.922521</v>
+      </c>
+      <c r="F13" s="46">
+        <v>18974.848779</v>
+      </c>
+      <c r="G13" s="47">
+        <v>28</v>
+      </c>
+      <c r="H13" s="47">
+        <v>41687.271801000003</v>
+      </c>
+      <c r="I13" s="48">
+        <v>12</v>
+      </c>
+      <c r="J13" s="49">
+        <v>6.0041070000000003</v>
+      </c>
+      <c r="K13" s="50">
+        <v>65.699516000000003</v>
+      </c>
+      <c r="L13" s="51">
+        <v>71.703622999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="35">
+        <v>13689.45</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2023.8482879999999</v>
+      </c>
+      <c r="E14" s="32">
+        <v>11665.601712</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1265.9661980000001</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="36">
+        <v>4.8159770000000002</v>
+      </c>
+      <c r="K14" s="33">
+        <v>87.030679000000006</v>
+      </c>
+      <c r="L14" s="34">
+        <v>91.846655999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="35">
+        <v>28372.687000000002</v>
+      </c>
+      <c r="D15" s="31">
+        <v>16829.259293999999</v>
+      </c>
+      <c r="E15" s="32">
+        <v>11543.427706</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2616.602547</v>
+      </c>
+      <c r="G15" s="31">
+        <v>5</v>
+      </c>
+      <c r="H15" s="31">
+        <v>8700.3370309999991</v>
+      </c>
+      <c r="I15" s="32">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36">
+        <v>5.0029029999999999</v>
+      </c>
+      <c r="K15" s="33">
+        <v>75.292242000000002</v>
+      </c>
+      <c r="L15" s="34">
+        <v>80.295145000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="C16" s="35">
+        <v>5152.42</v>
+      </c>
+      <c r="D16" s="31">
+        <v>2247.1764589999998</v>
+      </c>
+      <c r="E16" s="32">
+        <v>2905.2435409999998</v>
+      </c>
+      <c r="F16" s="35">
+        <v>940.95540700000004</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="36">
+        <v>4.2989790000000001</v>
+      </c>
+      <c r="K16" s="33">
+        <v>100.878424</v>
+      </c>
+      <c r="L16" s="34">
+        <v>105.177403</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
+      <c r="C17" s="53">
+        <v>19319.063999999998</v>
+      </c>
+      <c r="D17" s="54">
+        <v>4707.2831340000002</v>
+      </c>
+      <c r="E17" s="55">
+        <v>14611.780865999999</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="54">
+        <v>1732.6702760000001</v>
+      </c>
+      <c r="I17" s="55">
+        <v>1</v>
+      </c>
+      <c r="J17" s="56">
+        <v>4.053299</v>
+      </c>
+      <c r="K17" s="57">
+        <v>91.304832000000005</v>
+      </c>
+      <c r="L17" s="58">
+        <v>95.358131</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+      <c r="C18" s="53">
+        <v>6182.8850000000002</v>
+      </c>
+      <c r="D18" s="54">
+        <v>4277.8144739999998</v>
+      </c>
+      <c r="E18" s="55">
+        <v>1905.070526</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="54">
+        <v>4003.4891790000001</v>
+      </c>
+      <c r="I18" s="55">
+        <v>2</v>
+      </c>
+      <c r="J18" s="56">
+        <v>5.1861220000000001</v>
+      </c>
+      <c r="K18" s="57">
+        <v>72.744452999999993</v>
+      </c>
+      <c r="L18" s="58">
+        <v>77.930576000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
+      <c r="C19" s="24">
+        <v>105789.731</v>
+      </c>
+      <c r="D19" s="25">
+        <v>50190.879975999997</v>
+      </c>
+      <c r="E19" s="26">
+        <v>55598.851024000003</v>
+      </c>
+      <c r="F19" s="24">
+        <v>5887.0331180000003</v>
+      </c>
+      <c r="G19" s="25">
+        <v>9</v>
+      </c>
+      <c r="H19" s="25">
+        <v>29565.141148999999</v>
+      </c>
+      <c r="I19" s="26">
+        <v>7</v>
+      </c>
+      <c r="J19" s="27">
+        <v>6.0349310000000003</v>
+      </c>
+      <c r="K19" s="28">
+        <v>90.647615999999999</v>
+      </c>
+      <c r="L19" s="29">
+        <v>96.682547</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
+      <c r="C20" s="53">
+        <v>1847.549</v>
+      </c>
+      <c r="D20" s="54">
+        <v>1375.4632799999999</v>
+      </c>
+      <c r="E20" s="55">
+        <v>472.08571999999998</v>
+      </c>
+      <c r="F20" s="53">
+        <v>567.672146</v>
+      </c>
+      <c r="G20" s="54">
+        <v>1</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="56">
+        <v>6.1533199999999999</v>
+      </c>
+      <c r="K20" s="57">
+        <v>63.648980000000002</v>
+      </c>
+      <c r="L20" s="58">
+        <v>69.802300000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
+      <c r="C21" s="53">
+        <v>2484.788</v>
+      </c>
+      <c r="D21" s="54">
+        <v>2261.877669</v>
+      </c>
+      <c r="E21" s="55">
+        <v>222.91033100000001</v>
+      </c>
+      <c r="F21" s="53">
+        <v>946.843076</v>
+      </c>
+      <c r="G21" s="54">
+        <v>1</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="56">
+        <v>6.816789</v>
+      </c>
+      <c r="K21" s="57">
+        <v>61.829253000000001</v>
+      </c>
+      <c r="L21" s="58">
+        <v>68.646041999999994</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="C22" s="60">
+        <v>230.87100000000001</v>
+      </c>
+      <c r="D22" s="61">
+        <v>176.387753</v>
+      </c>
+      <c r="E22" s="62">
+        <v>54.483246999999999</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="63">
+        <v>6.6894770000000001</v>
+      </c>
+      <c r="K22" s="64">
+        <v>66.167794999999998</v>
+      </c>
+      <c r="L22" s="65">
+        <v>72.857270999999997</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
+      <c r="C23" s="46">
+        <v>183069.44500000001</v>
+      </c>
+      <c r="D23" s="47">
+        <v>84089.990325000006</v>
+      </c>
+      <c r="E23" s="48">
+        <v>98979.454675000001</v>
+      </c>
+      <c r="F23" s="46">
+        <v>10959.106295</v>
+      </c>
+      <c r="G23" s="47">
+        <v>17</v>
+      </c>
+      <c r="H23" s="47">
+        <v>45267.603833000001</v>
+      </c>
+      <c r="I23" s="48">
+        <v>13</v>
+      </c>
+      <c r="J23" s="49">
+        <v>5.4501999999999997</v>
+      </c>
+      <c r="K23" s="50">
+        <v>78.838252999999995</v>
+      </c>
+      <c r="L23" s="51">
+        <v>84.288452000000007</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
+      <c r="C24" s="67">
+        <v>850.38699999999994</v>
+      </c>
+      <c r="D24" s="68">
+        <v>256.23861099999999</v>
+      </c>
+      <c r="E24" s="69">
+        <v>594.14838899999995</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="70">
+        <v>7.6962450000000002</v>
+      </c>
+      <c r="K24" s="71">
+        <v>64.345843000000002</v>
+      </c>
+      <c r="L24" s="72">
+        <v>72.042088000000007</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="C25" s="35">
+        <v>1152.944</v>
+      </c>
+      <c r="D25" s="31">
+        <v>905.660571</v>
+      </c>
+      <c r="E25" s="32">
+        <v>247.28342900000001</v>
+      </c>
+      <c r="F25" s="35">
+        <v>663.41089199999999</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="36">
+        <v>7.2099880000000001</v>
+      </c>
+      <c r="K25" s="33">
+        <v>45.021825999999997</v>
+      </c>
+      <c r="L25" s="34">
+        <v>52.231814</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="C26" s="35">
+        <v>3470.39</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1501.533641</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1968.8563590000001</v>
+      </c>
+      <c r="F26" s="35">
+        <v>641.448936</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="36">
+        <v>7.260764</v>
+      </c>
+      <c r="K26" s="33">
+        <v>67.651576000000006</v>
+      </c>
+      <c r="L26" s="34">
+        <v>74.91234</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="C27" s="35">
+        <v>128691.692</v>
+      </c>
+      <c r="D27" s="31">
+        <v>29801.135116000001</v>
+      </c>
+      <c r="E27" s="32">
+        <v>98890.556884000005</v>
+      </c>
+      <c r="F27" s="35">
+        <v>2018.8386390000001</v>
+      </c>
+      <c r="G27" s="31">
+        <v>4</v>
+      </c>
+      <c r="H27" s="31">
+        <v>5820.1506479999998</v>
+      </c>
+      <c r="I27" s="32">
+        <v>1</v>
+      </c>
+      <c r="J27" s="36">
+        <v>5.5188670000000002</v>
+      </c>
+      <c r="K27" s="33">
+        <v>68.505990999999995</v>
+      </c>
+      <c r="L27" s="34">
+        <v>74.024856999999997</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+      <c r="C28" s="35">
+        <v>55339.002999999997</v>
+      </c>
+      <c r="D28" s="31">
+        <v>16336.073686</v>
+      </c>
+      <c r="E28" s="32">
+        <v>39002.929314000001</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1643.863613</v>
+      </c>
+      <c r="G28" s="31">
+        <v>4</v>
+      </c>
+      <c r="H28" s="31">
+        <v>6523.1845620000004</v>
+      </c>
+      <c r="I28" s="32">
+        <v>2</v>
+      </c>
+      <c r="J28" s="36">
+        <v>4.884862</v>
+      </c>
+      <c r="K28" s="33">
+        <v>62.789071999999997</v>
+      </c>
+      <c r="L28" s="34">
+        <v>67.673934000000003</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="C29" s="35">
+        <v>31195.932000000001</v>
+      </c>
+      <c r="D29" s="31">
+        <v>12651.822182</v>
+      </c>
+      <c r="E29" s="32">
+        <v>18544.109818000001</v>
+      </c>
+      <c r="F29" s="35">
+        <v>952.24744899999996</v>
+      </c>
+      <c r="G29" s="31">
+        <v>2</v>
+      </c>
+      <c r="H29" s="31">
+        <v>4034.9614069999998</v>
+      </c>
+      <c r="I29" s="32">
+        <v>1</v>
+      </c>
+      <c r="J29" s="36">
+        <v>5.8416829999999997</v>
+      </c>
+      <c r="K29" s="33">
+        <v>69.312061</v>
+      </c>
+      <c r="L29" s="34">
+        <v>75.153744000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
+      <c r="C30" s="35">
+        <v>1273.588</v>
+      </c>
+      <c r="D30" s="31">
+        <v>520.47720800000002</v>
+      </c>
+      <c r="E30" s="32">
+        <v>753.11079199999995</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="36">
+        <v>17.991365999999999</v>
+      </c>
+      <c r="K30" s="33">
+        <v>21.025165000000001</v>
+      </c>
+      <c r="L30" s="34">
+        <v>39.016531000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
+      <c r="C31" s="35">
+        <v>13954.472</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2496.7341299999998</v>
+      </c>
+      <c r="E31" s="32">
+        <v>11457.737870000001</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1247.009462</v>
+      </c>
+      <c r="I31" s="32">
+        <v>1</v>
+      </c>
+      <c r="J31" s="36">
+        <v>6.5390240000000004</v>
+      </c>
+      <c r="K31" s="33">
+        <v>64.556773000000007</v>
+      </c>
+      <c r="L31" s="34">
+        <v>71.095797000000005</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
+      <c r="C32" s="35">
+        <v>127.95099999999999</v>
+      </c>
+      <c r="D32" s="31">
+        <v>75.260778000000002</v>
+      </c>
+      <c r="E32" s="32">
+        <v>52.690221999999999</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="36">
+        <v>11.652554</v>
+      </c>
+      <c r="K32" s="33">
+        <v>28.157333999999999</v>
+      </c>
+      <c r="L32" s="34">
+        <v>39.809888000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
+      <c r="C33" s="35">
+        <v>18358.615000000002</v>
+      </c>
+      <c r="D33" s="31">
+        <v>8797.4483080000009</v>
+      </c>
+      <c r="E33" s="32">
+        <v>9561.1666920000007</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1944.5852709999999</v>
+      </c>
+      <c r="G33" s="31">
+        <v>3</v>
+      </c>
+      <c r="H33" s="31">
+        <v>3898.4795049999998</v>
+      </c>
+      <c r="I33" s="32">
+        <v>2</v>
+      </c>
+      <c r="J33" s="36">
+        <v>5.052708</v>
+      </c>
+      <c r="K33" s="33">
+        <v>91.965609999999998</v>
+      </c>
+      <c r="L33" s="34">
+        <v>97.018317999999994</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
+      <c r="C34" s="53">
+        <v>11483.374</v>
+      </c>
+      <c r="D34" s="54">
+        <v>2433.9011190000001</v>
+      </c>
+      <c r="E34" s="55">
+        <v>9049.4728809999997</v>
+      </c>
+      <c r="F34" s="53">
+        <v>359.515085</v>
+      </c>
+      <c r="G34" s="54">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="56">
+        <v>5.0884200000000002</v>
+      </c>
+      <c r="K34" s="57">
+        <v>69.626643999999999</v>
+      </c>
+      <c r="L34" s="58">
+        <v>74.715064999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
+      <c r="C35" s="35">
+        <v>50042.790999999997</v>
+      </c>
+      <c r="D35" s="31">
+        <v>18186.551104999999</v>
+      </c>
+      <c r="E35" s="32">
+        <v>31856.239894999999</v>
+      </c>
+      <c r="F35" s="35">
+        <v>2378.3404679999999</v>
+      </c>
+      <c r="G35" s="31">
+        <v>5</v>
+      </c>
+      <c r="H35" s="31">
+        <v>7920.8167700000004</v>
+      </c>
+      <c r="I35" s="32">
+        <v>2</v>
+      </c>
+      <c r="J35" s="36">
+        <v>5.7209219999999998</v>
+      </c>
+      <c r="K35" s="33">
+        <v>72.408659999999998</v>
+      </c>
+      <c r="L35" s="34">
+        <v>78.129581000000002</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="C36" s="35">
+        <v>66617.606</v>
+      </c>
+      <c r="D36" s="31">
+        <v>24920.980229000001</v>
+      </c>
+      <c r="E36" s="32">
+        <v>41696.625770999999</v>
+      </c>
+      <c r="F36" s="35">
+        <v>2782.4947790000001</v>
+      </c>
+      <c r="G36" s="31">
+        <v>5</v>
+      </c>
+      <c r="H36" s="31">
+        <v>8825.1676559999996</v>
+      </c>
+      <c r="I36" s="32">
+        <v>2</v>
+      </c>
+      <c r="J36" s="36">
+        <v>5.6113499999999998</v>
+      </c>
+      <c r="K36" s="33">
+        <v>78.778541000000004</v>
+      </c>
+      <c r="L36" s="34">
+        <v>84.389891000000006</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="44"/>
+      <c r="C37" s="38">
+        <v>48656.601000000002</v>
+      </c>
+      <c r="D37" s="39">
+        <v>13025.858654</v>
+      </c>
+      <c r="E37" s="40">
+        <v>35630.742345999999</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="39">
+        <v>3611.164914</v>
+      </c>
+      <c r="I37" s="40">
+        <v>1</v>
+      </c>
+      <c r="J37" s="41">
+        <v>3.9891179999999999</v>
+      </c>
+      <c r="K37" s="42">
+        <v>81.500558999999996</v>
+      </c>
+      <c r="L37" s="43">
+        <v>85.489677</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="C38" s="46">
+        <v>431215.34600000002</v>
+      </c>
+      <c r="D38" s="47">
+        <v>131909.675338</v>
+      </c>
+      <c r="E38" s="48">
+        <v>299305.67066200002</v>
+      </c>
+      <c r="F38" s="46">
+        <v>13384.745133</v>
+      </c>
+      <c r="G38" s="47">
+        <v>26</v>
+      </c>
+      <c r="H38" s="47">
+        <v>41880.934924000001</v>
+      </c>
+      <c r="I38" s="48">
+        <v>12</v>
+      </c>
+      <c r="J38" s="49">
+        <v>7.1469909999999999</v>
+      </c>
+      <c r="K38" s="50">
+        <v>63.260404000000001</v>
+      </c>
+      <c r="L38" s="51">
+        <v>70.407394999999994</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="80"/>
+      <c r="C39" s="74">
+        <v>46164.218999999997</v>
+      </c>
+      <c r="D39" s="75">
+        <v>34746.884357000003</v>
+      </c>
+      <c r="E39" s="76">
+        <v>11417.334643</v>
+      </c>
+      <c r="F39" s="74">
+        <v>3558.4844450000001</v>
+      </c>
+      <c r="G39" s="75">
+        <v>7</v>
+      </c>
+      <c r="H39" s="75">
+        <v>2965.0997160000002</v>
+      </c>
+      <c r="I39" s="76">
+        <v>1</v>
+      </c>
+      <c r="J39" s="77">
+        <v>10.124601999999999</v>
+      </c>
+      <c r="K39" s="78">
+        <v>48.646402000000002</v>
+      </c>
+      <c r="L39" s="79">
+        <v>58.771003</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
+      <c r="C40" s="35">
+        <v>114535.772</v>
+      </c>
+      <c r="D40" s="31">
+        <v>49364.917732000002</v>
+      </c>
+      <c r="E40" s="32">
+        <v>65170.854268000003</v>
+      </c>
+      <c r="F40" s="35">
+        <v>5806.2189170000001</v>
+      </c>
+      <c r="G40" s="31">
+        <v>11</v>
+      </c>
+      <c r="H40" s="31">
+        <v>29420.452926000002</v>
+      </c>
+      <c r="I40" s="32">
+        <v>2</v>
+      </c>
+      <c r="J40" s="36">
+        <v>7.9394030000000004</v>
+      </c>
+      <c r="K40" s="33">
+        <v>51.817265999999996</v>
+      </c>
+      <c r="L40" s="34">
+        <v>59.756669000000002</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
+      <c r="C41" s="53">
+        <v>7305.6589999999997</v>
+      </c>
+      <c r="D41" s="54">
+        <v>5961.856084</v>
+      </c>
+      <c r="E41" s="55">
+        <v>1343.8029160000001</v>
+      </c>
+      <c r="F41" s="53">
+        <v>910.41322400000001</v>
+      </c>
+      <c r="G41" s="54">
+        <v>1</v>
+      </c>
+      <c r="H41" s="54">
+        <v>2296.65542</v>
+      </c>
+      <c r="I41" s="55">
+        <v>2</v>
+      </c>
+      <c r="J41" s="56">
+        <v>7.2634210000000001</v>
+      </c>
+      <c r="K41" s="57">
+        <v>41.633243999999998</v>
+      </c>
+      <c r="L41" s="58">
+        <v>48.896664000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
+      <c r="C42" s="53">
+        <v>5022.442</v>
+      </c>
+      <c r="D42" s="54">
+        <v>2897.8988100000001</v>
+      </c>
+      <c r="E42" s="55">
+        <v>2124.5431899999999</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="54">
+        <v>1452.1643340000001</v>
+      </c>
+      <c r="I42" s="55">
+        <v>1</v>
+      </c>
+      <c r="J42" s="56">
+        <v>5.9821650000000002</v>
+      </c>
+      <c r="K42" s="57">
+        <v>80.069280000000006</v>
+      </c>
+      <c r="L42" s="58">
+        <v>86.051445000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
+      <c r="C43" s="35">
+        <v>37712.504999999997</v>
+      </c>
+      <c r="D43" s="31">
+        <v>24558.760381</v>
+      </c>
+      <c r="E43" s="32">
+        <v>13153.744618999999</v>
+      </c>
+      <c r="F43" s="35">
+        <v>3383.9706160000001</v>
+      </c>
+      <c r="G43" s="31">
+        <v>6</v>
+      </c>
+      <c r="H43" s="31">
+        <v>9355.4961899999998</v>
+      </c>
+      <c r="I43" s="32">
+        <v>5</v>
+      </c>
+      <c r="J43" s="36">
+        <v>11.832261000000001</v>
+      </c>
+      <c r="K43" s="33">
+        <v>39.364314</v>
+      </c>
+      <c r="L43" s="34">
+        <v>51.196573999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="C44" s="60">
+        <v>12200.431</v>
+      </c>
+      <c r="D44" s="61">
+        <v>8606.6720449999993</v>
+      </c>
+      <c r="E44" s="62">
+        <v>3593.7589549999998</v>
+      </c>
+      <c r="F44" s="60">
+        <v>648.58090400000003</v>
+      </c>
+      <c r="G44" s="61">
+        <v>1</v>
+      </c>
+      <c r="H44" s="61">
+        <v>2468.5034780000001</v>
+      </c>
+      <c r="I44" s="62">
+        <v>1</v>
+      </c>
+      <c r="J44" s="63">
+        <v>13.804885000000001</v>
+      </c>
+      <c r="K44" s="64">
+        <v>36.800204999999998</v>
+      </c>
+      <c r="L44" s="65">
+        <v>50.605089999999997</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="52"/>
+      <c r="C45" s="46">
+        <v>222941.02799999999</v>
+      </c>
+      <c r="D45" s="47">
+        <v>126136.98940799999</v>
+      </c>
+      <c r="E45" s="48">
+        <v>96804.038591999997</v>
+      </c>
+      <c r="F45" s="46">
+        <v>14307.668107</v>
+      </c>
+      <c r="G45" s="47">
+        <v>26</v>
+      </c>
+      <c r="H45" s="47">
+        <v>47958.372064000003</v>
+      </c>
+      <c r="I45" s="48">
+        <v>12</v>
+      </c>
+      <c r="J45" s="49">
+        <v>9.491123</v>
+      </c>
+      <c r="K45" s="50">
+        <v>49.721784999999997</v>
+      </c>
+      <c r="L45" s="51">
+        <v>59.212907999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="73"/>
+      <c r="C46" s="67">
+        <v>14111.034</v>
+      </c>
+      <c r="D46" s="68">
+        <v>7069.6280340000003</v>
+      </c>
+      <c r="E46" s="69">
+        <v>7041.4059660000003</v>
+      </c>
+      <c r="F46" s="67">
+        <v>1627.0441780000001</v>
+      </c>
+      <c r="G46" s="68">
+        <v>3</v>
+      </c>
+      <c r="H46" s="68">
+        <v>1347.6594250000001</v>
+      </c>
+      <c r="I46" s="69">
+        <v>1</v>
+      </c>
+      <c r="J46" s="70">
+        <v>5.6066479999999999</v>
+      </c>
+      <c r="K46" s="71">
+        <v>75.961124999999996</v>
+      </c>
+      <c r="L46" s="72">
+        <v>81.567773000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
+      <c r="C47" s="35">
+        <v>23025.776000000002</v>
+      </c>
+      <c r="D47" s="31">
+        <v>7487.9823550000001</v>
+      </c>
+      <c r="E47" s="32">
+        <v>15537.793645</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="31">
+        <v>4390.9401239999997</v>
+      </c>
+      <c r="I47" s="32">
+        <v>2</v>
+      </c>
+      <c r="J47" s="36">
+        <v>4.7668559999999998</v>
+      </c>
+      <c r="K47" s="33">
+        <v>77.123985000000005</v>
+      </c>
+      <c r="L47" s="34">
+        <v>81.890840999999995</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="59"/>
+      <c r="C48" s="53">
+        <v>522.33000000000004</v>
+      </c>
+      <c r="D48" s="54">
+        <v>355.09038099999998</v>
+      </c>
+      <c r="E48" s="55">
+        <v>167.239619</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="56">
+        <v>9.8144019999999994</v>
+      </c>
+      <c r="K48" s="57">
+        <v>39.330421000000001</v>
+      </c>
+      <c r="L48" s="58">
+        <v>49.144823000000002</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
+      <c r="C49" s="35">
+        <v>31165.653999999999</v>
+      </c>
+      <c r="D49" s="31">
+        <v>16564.233444000001</v>
+      </c>
+      <c r="E49" s="32">
+        <v>14601.420555999999</v>
+      </c>
+      <c r="F49" s="35">
+        <v>667.824566</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31">
+        <v>6288.2978730000004</v>
+      </c>
+      <c r="I49" s="32">
+        <v>1</v>
+      </c>
+      <c r="J49" s="36">
+        <v>4.5734700000000004</v>
+      </c>
+      <c r="K49" s="33">
+        <v>73.504029000000003</v>
+      </c>
+      <c r="L49" s="34">
+        <v>78.077499000000003</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
+      <c r="C50" s="35">
+        <v>2697.846</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1739.3552729999999</v>
+      </c>
+      <c r="E50" s="32">
+        <v>958.49072699999999</v>
+      </c>
+      <c r="F50" s="35">
+        <v>520.42780100000004</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="36">
+        <v>5.2903500000000001</v>
+      </c>
+      <c r="K50" s="33">
+        <v>72.357196000000002</v>
+      </c>
+      <c r="L50" s="34">
+        <v>77.647544999999994</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
@@ -2564,1012 +3500,1969 @@
       <c r="B51" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
+      <c r="C51" s="24">
+        <v>33787.913999999997</v>
+      </c>
+      <c r="D51" s="25">
+        <v>20015.284495</v>
+      </c>
+      <c r="E51" s="26">
+        <v>13772.629505000001</v>
+      </c>
+      <c r="F51" s="24">
+        <v>754.85340099999996</v>
+      </c>
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25">
+        <v>7764.2631520000004</v>
+      </c>
+      <c r="I51" s="26">
+        <v>3</v>
+      </c>
+      <c r="J51" s="27">
+        <v>6.0340030000000002</v>
+      </c>
+      <c r="K51" s="28">
+        <v>60.108583000000003</v>
+      </c>
+      <c r="L51" s="29">
+        <v>66.142585999999994</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
+      <c r="C52" s="35">
+        <v>14405.468000000001</v>
+      </c>
+      <c r="D52" s="31">
+        <v>5486.3224879999998</v>
+      </c>
+      <c r="E52" s="32">
+        <v>8919.1455119999991</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="31">
+        <v>2048.1403970000001</v>
+      </c>
+      <c r="I52" s="32">
+        <v>1</v>
+      </c>
+      <c r="J52" s="36">
+        <v>6.2207610000000004</v>
+      </c>
+      <c r="K52" s="33">
+        <v>74.558811000000006</v>
+      </c>
+      <c r="L52" s="34">
+        <v>80.779572000000002</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="31"/>
+      <c r="C53" s="35">
+        <v>2153.3389999999999</v>
+      </c>
+      <c r="D53" s="31">
+        <v>979.03710999999998</v>
+      </c>
+      <c r="E53" s="32">
+        <v>1174.30189</v>
+      </c>
+      <c r="F53" s="35">
+        <v>667.263373</v>
+      </c>
+      <c r="G53" s="31">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="36">
+        <v>5.4547980000000003</v>
+      </c>
+      <c r="K53" s="33">
+        <v>68.110934999999998</v>
+      </c>
+      <c r="L53" s="34">
+        <v>73.565732999999994</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
+      <c r="C54" s="35">
+        <v>5493.0309999999999</v>
+      </c>
+      <c r="D54" s="31">
+        <v>2942.451916</v>
+      </c>
+      <c r="E54" s="32">
+        <v>2550.579084</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="31">
+        <v>1677.0595049999999</v>
+      </c>
+      <c r="I54" s="32">
+        <v>1</v>
+      </c>
+      <c r="J54" s="36">
+        <v>5.7780290000000001</v>
+      </c>
+      <c r="K54" s="33">
+        <v>70.509111000000004</v>
+      </c>
+      <c r="L54" s="34">
+        <v>76.287139999999994</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="31"/>
+      <c r="C55" s="35">
+        <v>23769.127</v>
+      </c>
+      <c r="D55" s="31">
+        <v>10978.72207</v>
+      </c>
+      <c r="E55" s="32">
+        <v>12790.404930000001</v>
+      </c>
+      <c r="F55" s="35">
+        <v>477.41504500000002</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31">
+        <v>3143.0957579999999</v>
+      </c>
+      <c r="I55" s="32">
+        <v>1</v>
+      </c>
+      <c r="J55" s="36">
+        <v>4.7039470000000003</v>
+      </c>
+      <c r="K55" s="33">
+        <v>90.858861000000005</v>
+      </c>
+      <c r="L55" s="34">
+        <v>95.562808000000004</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="31"/>
+      <c r="C56" s="35">
+        <v>26159.866999999998</v>
+      </c>
+      <c r="D56" s="31">
+        <v>4461.3037180000001</v>
+      </c>
+      <c r="E56" s="32">
+        <v>21698.563281999999</v>
+      </c>
+      <c r="F56" s="35">
+        <v>554.33292700000004</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31">
+        <v>1393.970253</v>
+      </c>
+      <c r="I56" s="32">
+        <v>1</v>
+      </c>
+      <c r="J56" s="36">
+        <v>5.0948820000000001</v>
+      </c>
+      <c r="K56" s="33">
+        <v>93.069220000000001</v>
+      </c>
+      <c r="L56" s="34">
+        <v>98.164101000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
+      <c r="C57" s="35">
+        <v>227882.94500000001</v>
+      </c>
+      <c r="D57" s="31">
+        <v>123701.699034</v>
+      </c>
+      <c r="E57" s="32">
+        <v>104181.245966</v>
+      </c>
+      <c r="F57" s="35">
+        <v>20904.366506999999</v>
+      </c>
+      <c r="G57" s="31">
+        <v>35</v>
+      </c>
+      <c r="H57" s="31">
+        <v>45152.423941000001</v>
+      </c>
+      <c r="I57" s="32">
+        <v>15</v>
+      </c>
+      <c r="J57" s="36">
+        <v>5.4581569999999999</v>
+      </c>
+      <c r="K57" s="33">
+        <v>74.788250000000005</v>
+      </c>
+      <c r="L57" s="34">
+        <v>80.246407000000005</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="31"/>
+      <c r="C58" s="35">
+        <v>18077.573</v>
+      </c>
+      <c r="D58" s="31">
+        <v>8962.6799179999998</v>
+      </c>
+      <c r="E58" s="32">
+        <v>9114.8930820000005</v>
+      </c>
+      <c r="F58" s="35">
+        <v>776.984554</v>
+      </c>
+      <c r="G58" s="31">
+        <v>2</v>
+      </c>
+      <c r="H58" s="31">
+        <v>3331.961843</v>
+      </c>
+      <c r="I58" s="32">
+        <v>1</v>
+      </c>
+      <c r="J58" s="36">
+        <v>6.213902</v>
+      </c>
+      <c r="K58" s="33">
+        <v>66.856335000000001</v>
+      </c>
+      <c r="L58" s="34">
+        <v>73.070238000000003</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="31"/>
+      <c r="C59" s="35">
+        <v>8460.5120000000006</v>
+      </c>
+      <c r="D59" s="31">
+        <v>3748.0068160000001</v>
+      </c>
+      <c r="E59" s="32">
+        <v>4712.5051839999996</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="31">
+        <v>1296.842913</v>
+      </c>
+      <c r="I59" s="32">
+        <v>1</v>
+      </c>
+      <c r="J59" s="36">
+        <v>5.5040190000000004</v>
+      </c>
+      <c r="K59" s="33">
+        <v>66.135692000000006</v>
+      </c>
+      <c r="L59" s="34">
+        <v>71.639711000000005</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
+      <c r="C60" s="38">
+        <v>9304.3379999999997</v>
+      </c>
+      <c r="D60" s="39">
+        <v>4139.4999760000001</v>
+      </c>
+      <c r="E60" s="40">
+        <v>5164.8380239999997</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="39">
+        <v>2050.315482</v>
+      </c>
+      <c r="I60" s="40">
+        <v>1</v>
+      </c>
+      <c r="J60" s="41">
+        <v>5.5550610000000002</v>
+      </c>
+      <c r="K60" s="42">
+        <v>70.026200000000003</v>
+      </c>
+      <c r="L60" s="43">
+        <v>75.581260999999998</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="52"/>
+      <c r="C61" s="46">
+        <v>441016.75400000002</v>
+      </c>
+      <c r="D61" s="47">
+        <v>218631.297028</v>
+      </c>
+      <c r="E61" s="48">
+        <v>222385.45697200001</v>
+      </c>
+      <c r="F61" s="46">
+        <v>26950.512352000002</v>
+      </c>
+      <c r="G61" s="47">
+        <v>46</v>
+      </c>
+      <c r="H61" s="47">
+        <v>79884.970663999993</v>
+      </c>
+      <c r="I61" s="48">
+        <v>29</v>
+      </c>
+      <c r="J61" s="49">
+        <v>5.7379519999999999</v>
+      </c>
+      <c r="K61" s="50">
+        <v>71.553250000000006</v>
+      </c>
+      <c r="L61" s="51">
+        <v>77.291202999999996</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="83" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="89"/>
+      <c r="C62" s="83">
+        <v>1478994.6089999999</v>
+      </c>
+      <c r="D62" s="84">
+        <v>665763.06557800004</v>
+      </c>
+      <c r="E62" s="85">
+        <v>813231.54342200002</v>
+      </c>
+      <c r="F62" s="83">
+        <v>84576.880665999997</v>
+      </c>
+      <c r="G62" s="84">
+        <v>143</v>
+      </c>
+      <c r="H62" s="84">
+        <v>256679.15328699999</v>
+      </c>
+      <c r="I62" s="85">
+        <v>78</v>
+      </c>
+      <c r="J62" s="86">
+        <v>6.5216070000000004</v>
+      </c>
+      <c r="K62" s="87">
+        <v>67.107676999999995</v>
+      </c>
+      <c r="L62" s="88">
+        <v>73.629283999999998</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="83" t="s">
+      <c r="A63" s="81"/>
+      <c r="B63" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="89"/>
+      <c r="C63" s="83">
+        <v>6566110.7960000001</v>
+      </c>
+      <c r="D63" s="84">
+        <v>3931659.9997669999</v>
+      </c>
+      <c r="E63" s="85">
+        <v>2634450.7962329998</v>
+      </c>
+      <c r="F63" s="83">
+        <v>595765.33312600001</v>
+      </c>
+      <c r="G63" s="84">
+        <v>1082</v>
+      </c>
+      <c r="H63" s="84">
+        <v>1768667.9189470001</v>
+      </c>
+      <c r="I63" s="85">
+        <v>538</v>
+      </c>
+      <c r="J63" s="86">
+        <v>18.591591000000001</v>
+      </c>
+      <c r="K63" s="87">
+        <v>34.185290000000002</v>
+      </c>
+      <c r="L63" s="88">
+        <v>52.776881000000003</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
-      <c r="B64" s="91" t="s">
+      <c r="A64" s="89"/>
+      <c r="B64" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="97"/>
+      <c r="C64" s="91">
+        <v>653952.73300000001</v>
+      </c>
+      <c r="D64" s="92">
+        <v>534523.39673599997</v>
+      </c>
+      <c r="E64" s="93">
+        <v>119429.336264</v>
+      </c>
+      <c r="F64" s="91">
+        <v>69231.270673999999</v>
+      </c>
+      <c r="G64" s="92">
+        <v>130</v>
+      </c>
+      <c r="H64" s="92">
+        <v>248823.09823999999</v>
+      </c>
+      <c r="I64" s="93">
+        <v>75</v>
+      </c>
+      <c r="J64" s="94">
+        <v>14.040201</v>
+      </c>
+      <c r="K64" s="95">
+        <v>34.609994999999998</v>
+      </c>
+      <c r="L64" s="96">
+        <v>48.650196000000001</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
-      <c r="B65" s="98" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="104"/>
+      <c r="C65" s="98">
+        <v>4365139.6109999996</v>
+      </c>
+      <c r="D65" s="99">
+        <v>2172673.376499</v>
+      </c>
+      <c r="E65" s="100">
+        <v>2192466.234501</v>
+      </c>
+      <c r="F65" s="98">
+        <v>320365.75852799998</v>
+      </c>
+      <c r="G65" s="99">
+        <v>556</v>
+      </c>
+      <c r="H65" s="99">
+        <v>982347.40056800004</v>
+      </c>
+      <c r="I65" s="100">
+        <v>293</v>
+      </c>
+      <c r="J65" s="101">
+        <v>9.9704750000000004</v>
+      </c>
+      <c r="K65" s="102">
+        <v>44.441265999999999</v>
+      </c>
+      <c r="L65" s="103">
+        <v>54.411741999999997</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
-      <c r="B66" s="105" t="s">
+      <c r="A66" s="89"/>
+      <c r="B66" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="111"/>
+      <c r="C66" s="105">
+        <v>8045105.4050000003</v>
+      </c>
+      <c r="D66" s="106">
+        <v>4597423.0653449995</v>
+      </c>
+      <c r="E66" s="107">
+        <v>3447682.3396549998</v>
+      </c>
+      <c r="F66" s="105">
+        <v>680342.21379099996</v>
+      </c>
+      <c r="G66" s="106">
+        <v>1225</v>
+      </c>
+      <c r="H66" s="106">
+        <v>2025347.0722330001</v>
+      </c>
+      <c r="I66" s="107">
+        <v>616</v>
+      </c>
+      <c r="J66" s="108">
+        <v>15.214497</v>
+      </c>
+      <c r="K66" s="109">
+        <v>43.396735</v>
+      </c>
+      <c r="L66" s="110">
+        <v>58.611232000000001</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
-      <c r="B67" s="98" t="s">
+      <c r="A67" s="89"/>
+      <c r="B67" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="104"/>
+      <c r="C67" s="98">
+        <v>666035.18400000001</v>
+      </c>
+      <c r="D67" s="99">
+        <v>239781.90413400001</v>
+      </c>
+      <c r="E67" s="100">
+        <v>426253.279866</v>
+      </c>
+      <c r="F67" s="98">
+        <v>26769.946888999999</v>
+      </c>
+      <c r="G67" s="99">
+        <v>47</v>
+      </c>
+      <c r="H67" s="99">
+        <v>103899.159462</v>
+      </c>
+      <c r="I67" s="100">
+        <v>26</v>
+      </c>
+      <c r="J67" s="101">
+        <v>7.1648389999999997</v>
+      </c>
+      <c r="K67" s="102">
+        <v>62.988121</v>
+      </c>
+      <c r="L67" s="103">
+        <v>70.152959999999993</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="98" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="103"/>
-      <c r="L68" s="104"/>
+      <c r="C68" s="98">
+        <v>710124.81299999997</v>
+      </c>
+      <c r="D68" s="99">
+        <v>343325.75161199999</v>
+      </c>
+      <c r="E68" s="100">
+        <v>366799.06138799997</v>
+      </c>
+      <c r="F68" s="98">
+        <v>44268.436988000001</v>
+      </c>
+      <c r="G68" s="99">
+        <v>76</v>
+      </c>
+      <c r="H68" s="99">
+        <v>136753.15005900001</v>
+      </c>
+      <c r="I68" s="100">
+        <v>44</v>
+      </c>
+      <c r="J68" s="101">
+        <v>6.3436760000000003</v>
+      </c>
+      <c r="K68" s="102">
+        <v>69.868812000000005</v>
+      </c>
+      <c r="L68" s="103">
+        <v>76.212487999999993</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="98" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="102"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="104"/>
+      <c r="C69" s="98">
+        <v>315530.23700000002</v>
+      </c>
+      <c r="D69" s="99">
+        <v>111428.276081</v>
+      </c>
+      <c r="E69" s="100">
+        <v>204101.960919</v>
+      </c>
+      <c r="F69" s="98">
+        <v>10672.906595</v>
+      </c>
+      <c r="G69" s="99">
+        <v>19</v>
+      </c>
+      <c r="H69" s="99">
+        <v>51037.633941</v>
+      </c>
+      <c r="I69" s="100">
+        <v>14</v>
+      </c>
+      <c r="J69" s="101">
+        <v>5.2805260000000001</v>
+      </c>
+      <c r="K69" s="102">
+        <v>76.418554999999998</v>
+      </c>
+      <c r="L69" s="103">
+        <v>81.699081000000007</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
-      <c r="B70" s="98" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="104"/>
+      <c r="C70" s="98">
+        <v>233773.823</v>
+      </c>
+      <c r="D70" s="99">
+        <v>111829.499889</v>
+      </c>
+      <c r="E70" s="100">
+        <v>121944.32311100001</v>
+      </c>
+      <c r="F70" s="98">
+        <v>16974.050125000002</v>
+      </c>
+      <c r="G70" s="99">
+        <v>25</v>
+      </c>
+      <c r="H70" s="99">
+        <v>55971.860432000001</v>
+      </c>
+      <c r="I70" s="100">
+        <v>15</v>
+      </c>
+      <c r="J70" s="101">
+        <v>5.5394670000000001</v>
+      </c>
+      <c r="K70" s="102">
+        <v>78.073905999999994</v>
+      </c>
+      <c r="L70" s="103">
+        <v>83.613372999999996</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
-      <c r="B71" s="98" t="s">
+      <c r="A71" s="89"/>
+      <c r="B71" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="104"/>
+      <c r="C71" s="98">
+        <v>441016.75400000002</v>
+      </c>
+      <c r="D71" s="99">
+        <v>218631.297028</v>
+      </c>
+      <c r="E71" s="100">
+        <v>222385.45697200001</v>
+      </c>
+      <c r="F71" s="98">
+        <v>26950.512352000002</v>
+      </c>
+      <c r="G71" s="99">
+        <v>46</v>
+      </c>
+      <c r="H71" s="99">
+        <v>79884.970663999993</v>
+      </c>
+      <c r="I71" s="100">
+        <v>29</v>
+      </c>
+      <c r="J71" s="101">
+        <v>5.7379519999999999</v>
+      </c>
+      <c r="K71" s="102">
+        <v>71.553250000000006</v>
+      </c>
+      <c r="L71" s="103">
+        <v>77.291202999999996</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
-      <c r="B72" s="98" t="s">
+      <c r="A72" s="89"/>
+      <c r="B72" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="101"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="104"/>
+      <c r="C72" s="98">
+        <v>313725.02</v>
+      </c>
+      <c r="D72" s="99">
+        <v>89486.628559000004</v>
+      </c>
+      <c r="E72" s="100">
+        <v>224238.39144100001</v>
+      </c>
+      <c r="F72" s="98">
+        <v>9008.5539690000005</v>
+      </c>
+      <c r="G72" s="99">
+        <v>18</v>
+      </c>
+      <c r="H72" s="99">
+        <v>27773.796398999999</v>
+      </c>
+      <c r="I72" s="100">
+        <v>8</v>
+      </c>
+      <c r="J72" s="101">
+        <v>5.3521260000000002</v>
+      </c>
+      <c r="K72" s="102">
+        <v>70.259765999999999</v>
+      </c>
+      <c r="L72" s="103">
+        <v>75.611891999999997</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
-      <c r="B73" s="98" t="s">
+      <c r="A73" s="89"/>
+      <c r="B73" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="101"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="104"/>
+      <c r="C73" s="98">
+        <v>406607.23100000003</v>
+      </c>
+      <c r="D73" s="99">
+        <v>193610.77246199999</v>
+      </c>
+      <c r="E73" s="100">
+        <v>212996.45853800001</v>
+      </c>
+      <c r="F73" s="98">
+        <v>28596.624124999998</v>
+      </c>
+      <c r="G73" s="99">
+        <v>44</v>
+      </c>
+      <c r="H73" s="99">
+        <v>84112.542012999998</v>
+      </c>
+      <c r="I73" s="100">
+        <v>22</v>
+      </c>
+      <c r="J73" s="101">
+        <v>7.1793250000000004</v>
+      </c>
+      <c r="K73" s="102">
+        <v>63.078856999999999</v>
+      </c>
+      <c r="L73" s="103">
+        <v>70.258182000000005</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
-      <c r="B74" s="98" t="s">
+      <c r="A74" s="89"/>
+      <c r="B74" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="104"/>
+      <c r="C74" s="98">
+        <v>108405.25599999999</v>
+      </c>
+      <c r="D74" s="99">
+        <v>76772.071676000007</v>
+      </c>
+      <c r="E74" s="100">
+        <v>31633.184324000002</v>
+      </c>
+      <c r="F74" s="98">
+        <v>8501.4491899999994</v>
+      </c>
+      <c r="G74" s="99">
+        <v>15</v>
+      </c>
+      <c r="H74" s="99">
+        <v>18537.919138000001</v>
+      </c>
+      <c r="I74" s="100">
+        <v>10</v>
+      </c>
+      <c r="J74" s="101">
+        <v>9.8014670000000006</v>
+      </c>
+      <c r="K74" s="102">
+        <v>49.302689000000001</v>
+      </c>
+      <c r="L74" s="103">
+        <v>59.104154999999999</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="90"/>
-      <c r="B75" s="98" t="s">
+      <c r="A75" s="89"/>
+      <c r="B75" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="116"/>
-      <c r="L75" s="117"/>
+      <c r="C75" s="111">
+        <v>73291.606</v>
+      </c>
+      <c r="D75" s="112">
+        <v>39787.924230999997</v>
+      </c>
+      <c r="E75" s="113">
+        <v>33503.681769000003</v>
+      </c>
+      <c r="F75" s="111">
+        <v>9559.6032479999994</v>
+      </c>
+      <c r="G75" s="112">
+        <v>14</v>
+      </c>
+      <c r="H75" s="112">
+        <v>12344.026753</v>
+      </c>
+      <c r="I75" s="113">
+        <v>3</v>
+      </c>
+      <c r="J75" s="114">
+        <v>6.5148450000000002</v>
+      </c>
+      <c r="K75" s="115">
+        <v>68.720712000000006</v>
+      </c>
+      <c r="L75" s="116">
+        <v>75.235557</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
-      <c r="B76" s="118" t="s">
+      <c r="A76" s="89"/>
+      <c r="B76" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="119"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="121"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="120"/>
-      <c r="I76" s="121"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="123"/>
-      <c r="L76" s="124"/>
+      <c r="C76" s="118">
+        <v>688732.9</v>
+      </c>
+      <c r="D76" s="119">
+        <v>356806.167158</v>
+      </c>
+      <c r="E76" s="120">
+        <v>331926.73284200003</v>
+      </c>
+      <c r="F76" s="118">
+        <v>43373.006221000003</v>
+      </c>
+      <c r="G76" s="119">
+        <v>81</v>
+      </c>
+      <c r="H76" s="119">
+        <v>124516.00875399999</v>
+      </c>
+      <c r="I76" s="120">
+        <v>39</v>
+      </c>
+      <c r="J76" s="121">
+        <v>11.57114</v>
+      </c>
+      <c r="K76" s="122">
+        <v>34.269832999999998</v>
+      </c>
+      <c r="L76" s="123">
+        <v>45.840972999999998</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="98" t="s">
+      <c r="A77" s="89"/>
+      <c r="B77" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="104"/>
+      <c r="C77" s="98">
+        <v>437176.05499999999</v>
+      </c>
+      <c r="D77" s="99">
+        <v>371267.50438699999</v>
+      </c>
+      <c r="E77" s="100">
+        <v>65908.550612999999</v>
+      </c>
+      <c r="F77" s="98">
+        <v>43502.14632</v>
+      </c>
+      <c r="G77" s="99">
+        <v>86</v>
+      </c>
+      <c r="H77" s="99">
+        <v>179632.238354</v>
+      </c>
+      <c r="I77" s="100">
+        <v>50</v>
+      </c>
+      <c r="J77" s="101">
+        <v>14.244849</v>
+      </c>
+      <c r="K77" s="102">
+        <v>36.510990999999997</v>
+      </c>
+      <c r="L77" s="103">
+        <v>50.755839999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="98" t="s">
+      <c r="A78" s="89"/>
+      <c r="B78" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="102"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="104"/>
+      <c r="C78" s="98">
+        <v>450657.52299999999</v>
+      </c>
+      <c r="D78" s="99">
+        <v>340701.73425600003</v>
+      </c>
+      <c r="E78" s="100">
+        <v>109955.788744</v>
+      </c>
+      <c r="F78" s="98">
+        <v>51729.305024000001</v>
+      </c>
+      <c r="G78" s="99">
+        <v>101</v>
+      </c>
+      <c r="H78" s="99">
+        <v>79208.451216000001</v>
+      </c>
+      <c r="I78" s="100">
+        <v>33</v>
+      </c>
+      <c r="J78" s="101">
+        <v>31.969557999999999</v>
+      </c>
+      <c r="K78" s="102">
+        <v>23.466117000000001</v>
+      </c>
+      <c r="L78" s="103">
+        <v>55.435673999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="105" t="s">
+      <c r="A79" s="89"/>
+      <c r="B79" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="106"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="108"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="108"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="110"/>
-      <c r="L79" s="111"/>
+      <c r="C79" s="105">
+        <v>1396301.7069999999</v>
+      </c>
+      <c r="D79" s="106">
+        <v>1140034.0683470001</v>
+      </c>
+      <c r="E79" s="107">
+        <v>256267.638653</v>
+      </c>
+      <c r="F79" s="105">
+        <v>188027.60712500001</v>
+      </c>
+      <c r="G79" s="106">
+        <v>348</v>
+      </c>
+      <c r="H79" s="106">
+        <v>533586.82513799996</v>
+      </c>
+      <c r="I79" s="107">
+        <v>156</v>
+      </c>
+      <c r="J79" s="108">
+        <v>29.128160999999999</v>
+      </c>
+      <c r="K79" s="109">
+        <v>25.366743</v>
+      </c>
+      <c r="L79" s="110">
+        <v>54.494903999999998</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
-      <c r="B80" s="118" t="s">
+      <c r="A80" s="89"/>
+      <c r="B80" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="119"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="119"/>
-      <c r="G80" s="120"/>
-      <c r="H80" s="120"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="123"/>
-      <c r="L80" s="124"/>
+      <c r="C80" s="118">
+        <v>137082.21599999999</v>
+      </c>
+      <c r="D80" s="119">
+        <v>84260.844738999993</v>
+      </c>
+      <c r="E80" s="120">
+        <v>52821.371261</v>
+      </c>
+      <c r="F80" s="118">
+        <v>12357.871807</v>
+      </c>
+      <c r="G80" s="119">
+        <v>19</v>
+      </c>
+      <c r="H80" s="119">
+        <v>21907.326062</v>
+      </c>
+      <c r="I80" s="120">
+        <v>8</v>
+      </c>
+      <c r="J80" s="121">
+        <v>6.582586</v>
+      </c>
+      <c r="K80" s="122">
+        <v>65.354541999999995</v>
+      </c>
+      <c r="L80" s="123">
+        <v>71.937128000000001</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
-      <c r="B81" s="98" t="s">
+      <c r="A81" s="89"/>
+      <c r="B81" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="100"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="102"/>
-      <c r="K81" s="103"/>
-      <c r="L81" s="104"/>
+      <c r="C81" s="98">
+        <v>516599.84</v>
+      </c>
+      <c r="D81" s="99">
+        <v>361068.18066000001</v>
+      </c>
+      <c r="E81" s="100">
+        <v>155531.65934000001</v>
+      </c>
+      <c r="F81" s="98">
+        <v>67666.927863999997</v>
+      </c>
+      <c r="G81" s="99">
+        <v>130</v>
+      </c>
+      <c r="H81" s="99">
+        <v>133210.310929</v>
+      </c>
+      <c r="I81" s="100">
+        <v>56</v>
+      </c>
+      <c r="J81" s="101">
+        <v>8.7797900000000002</v>
+      </c>
+      <c r="K81" s="102">
+        <v>39.162821000000001</v>
+      </c>
+      <c r="L81" s="103">
+        <v>47.942610999999999</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
-      <c r="B82" s="98" t="s">
+      <c r="A82" s="89"/>
+      <c r="B82" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="102"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="104"/>
+      <c r="C82" s="98">
+        <v>1341912.3929999999</v>
+      </c>
+      <c r="D82" s="99">
+        <v>581502.22083899996</v>
+      </c>
+      <c r="E82" s="100">
+        <v>760410.17216099997</v>
+      </c>
+      <c r="F82" s="98">
+        <v>72219.008858000001</v>
+      </c>
+      <c r="G82" s="99">
+        <v>124</v>
+      </c>
+      <c r="H82" s="99">
+        <v>234771.82722499999</v>
+      </c>
+      <c r="I82" s="100">
+        <v>70</v>
+      </c>
+      <c r="J82" s="101">
+        <v>6.5077480000000003</v>
+      </c>
+      <c r="K82" s="102">
+        <v>67.506117000000003</v>
+      </c>
+      <c r="L82" s="103">
+        <v>74.013863999999998</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="105" t="s">
+      <c r="A83" s="89"/>
+      <c r="B83" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="106"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="110"/>
-      <c r="L83" s="111"/>
+      <c r="C83" s="105">
+        <v>6049510.9560000002</v>
+      </c>
+      <c r="D83" s="106">
+        <v>3570591.8191069998</v>
+      </c>
+      <c r="E83" s="107">
+        <v>2478919.136893</v>
+      </c>
+      <c r="F83" s="105">
+        <v>528098.40526200004</v>
+      </c>
+      <c r="G83" s="106">
+        <v>952</v>
+      </c>
+      <c r="H83" s="106">
+        <v>1635457.6080179999</v>
+      </c>
+      <c r="I83" s="107">
+        <v>482</v>
+      </c>
+      <c r="J83" s="108">
+        <v>20.436544999999999</v>
+      </c>
+      <c r="K83" s="109">
+        <v>33.249344000000001</v>
+      </c>
+      <c r="L83" s="110">
+        <v>53.685889000000003</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
-      <c r="B84" s="118" t="s">
+      <c r="A84" s="89"/>
+      <c r="B84" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="119"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="120"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="123"/>
-      <c r="L84" s="124"/>
+      <c r="C84" s="118">
+        <v>476916.31800000003</v>
+      </c>
+      <c r="D84" s="119">
+        <v>171631.929095</v>
+      </c>
+      <c r="E84" s="120">
+        <v>305284.388905</v>
+      </c>
+      <c r="F84" s="118">
+        <v>19188.028869000002</v>
+      </c>
+      <c r="G84" s="119">
+        <v>32</v>
+      </c>
+      <c r="H84" s="119">
+        <v>71337.173718000005</v>
+      </c>
+      <c r="I84" s="120">
+        <v>26</v>
+      </c>
+      <c r="J84" s="121">
+        <v>5.2732400000000004</v>
+      </c>
+      <c r="K84" s="122">
+        <v>78.762652000000003</v>
+      </c>
+      <c r="L84" s="123">
+        <v>84.035892000000004</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
-      <c r="B85" s="125" t="s">
+      <c r="A85" s="89"/>
+      <c r="B85" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="99"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="101"/>
-      <c r="J85" s="102"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="104"/>
+      <c r="C85" s="98">
+        <v>130858.387</v>
+      </c>
+      <c r="D85" s="99">
+        <v>57097.294521999997</v>
+      </c>
+      <c r="E85" s="100">
+        <v>73761.092478000006</v>
+      </c>
+      <c r="F85" s="98">
+        <v>9614.9561229999999</v>
+      </c>
+      <c r="G85" s="99">
+        <v>16</v>
+      </c>
+      <c r="H85" s="99">
+        <v>22299.938707000001</v>
+      </c>
+      <c r="I85" s="100">
+        <v>9</v>
+      </c>
+      <c r="J85" s="101">
+        <v>8.3688479999999998</v>
+      </c>
+      <c r="K85" s="102">
+        <v>56.733226000000002</v>
+      </c>
+      <c r="L85" s="103">
+        <v>65.102074999999999</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
-      <c r="B86" s="98" t="s">
+      <c r="A86" s="89"/>
+      <c r="B86" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="100"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="101"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="103"/>
-      <c r="L86" s="104"/>
+      <c r="C86" s="98">
+        <v>747967.88699999999</v>
+      </c>
+      <c r="D86" s="99">
+        <v>373723.68167100003</v>
+      </c>
+      <c r="E86" s="100">
+        <v>374244.20532900002</v>
+      </c>
+      <c r="F86" s="98">
+        <v>51073.425453999997</v>
+      </c>
+      <c r="G86" s="99">
+        <v>88</v>
+      </c>
+      <c r="H86" s="99">
+        <v>150743.50176000001</v>
+      </c>
+      <c r="I86" s="100">
+        <v>42</v>
+      </c>
+      <c r="J86" s="101">
+        <v>6.5304380000000002</v>
+      </c>
+      <c r="K86" s="102">
+        <v>65.551400999999998</v>
+      </c>
+      <c r="L86" s="103">
+        <v>72.081839000000002</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="98" t="s">
+      <c r="A87" s="89"/>
+      <c r="B87" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="100"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="101"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="104"/>
+      <c r="C87" s="98">
+        <v>2329777.602</v>
+      </c>
+      <c r="D87" s="99">
+        <v>885355.13542099996</v>
+      </c>
+      <c r="E87" s="100">
+        <v>1444422.466579</v>
+      </c>
+      <c r="F87" s="98">
+        <v>102938.420743</v>
+      </c>
+      <c r="G87" s="99">
+        <v>187</v>
+      </c>
+      <c r="H87" s="99">
+        <v>397324.36925799999</v>
+      </c>
+      <c r="I87" s="100">
+        <v>103</v>
+      </c>
+      <c r="J87" s="101">
+        <v>8.8930229999999995</v>
+      </c>
+      <c r="K87" s="102">
+        <v>48.133420000000001</v>
+      </c>
+      <c r="L87" s="103">
+        <v>57.026443</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="98" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="101"/>
-      <c r="J88" s="102"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="104"/>
+      <c r="C88" s="98">
+        <v>125290.761</v>
+      </c>
+      <c r="D88" s="99">
+        <v>90531.058917000002</v>
+      </c>
+      <c r="E88" s="100">
+        <v>34759.702082000003</v>
+      </c>
+      <c r="F88" s="98">
+        <v>12296.587702999999</v>
+      </c>
+      <c r="G88" s="99">
+        <v>19</v>
+      </c>
+      <c r="H88" s="99">
+        <v>28778.327161000001</v>
+      </c>
+      <c r="I88" s="100">
+        <v>9</v>
+      </c>
+      <c r="J88" s="101">
+        <v>9.2571530000000006</v>
+      </c>
+      <c r="K88" s="102">
+        <v>45.681663999999998</v>
+      </c>
+      <c r="L88" s="103">
+        <v>54.938817</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="98" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="103"/>
-      <c r="L89" s="104"/>
+      <c r="C89" s="98">
+        <v>2697262.9920000001</v>
+      </c>
+      <c r="D89" s="99">
+        <v>1846332.591029</v>
+      </c>
+      <c r="E89" s="100">
+        <v>850930.40097099997</v>
+      </c>
+      <c r="F89" s="98">
+        <v>291396.31168799999</v>
+      </c>
+      <c r="G89" s="99">
+        <v>512</v>
+      </c>
+      <c r="H89" s="99">
+        <v>843142.88832100003</v>
+      </c>
+      <c r="I89" s="100">
+        <v>267</v>
+      </c>
+      <c r="J89" s="101">
+        <v>15.586441000000001</v>
+      </c>
+      <c r="K89" s="102">
+        <v>35.814849000000002</v>
+      </c>
+      <c r="L89" s="103">
+        <v>51.401290000000003</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="105" t="s">
+      <c r="A90" s="89"/>
+      <c r="B90" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="106"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="106"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="108"/>
-      <c r="J90" s="109"/>
-      <c r="K90" s="110"/>
-      <c r="L90" s="111"/>
+      <c r="C90" s="105">
+        <v>1380038.912</v>
+      </c>
+      <c r="D90" s="106">
+        <v>1117921.5303130001</v>
+      </c>
+      <c r="E90" s="107">
+        <v>262117.38168699999</v>
+      </c>
+      <c r="F90" s="105">
+        <v>187398.050349</v>
+      </c>
+      <c r="G90" s="106">
+        <v>358</v>
+      </c>
+      <c r="H90" s="106">
+        <v>497800.67912400002</v>
+      </c>
+      <c r="I90" s="107">
+        <v>154</v>
+      </c>
+      <c r="J90" s="108">
+        <v>25.239563</v>
+      </c>
+      <c r="K90" s="109">
+        <v>25.770346</v>
+      </c>
+      <c r="L90" s="110">
+        <v>51.009909</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="118" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="119"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="119"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="120"/>
-      <c r="I91" s="121"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="123"/>
-      <c r="L91" s="124"/>
+      <c r="C91" s="118">
+        <v>785630.80700000003</v>
+      </c>
+      <c r="D91" s="119">
+        <v>287480.73169599997</v>
+      </c>
+      <c r="E91" s="120">
+        <v>498150.075304</v>
+      </c>
+      <c r="F91" s="118">
+        <v>34444.826567999997</v>
+      </c>
+      <c r="G91" s="119">
+        <v>57</v>
+      </c>
+      <c r="H91" s="119">
+        <v>106853.63501</v>
+      </c>
+      <c r="I91" s="120">
+        <v>35</v>
+      </c>
+      <c r="J91" s="121">
+        <v>5.4928549999999996</v>
+      </c>
+      <c r="K91" s="122">
+        <v>75.767774000000003</v>
+      </c>
+      <c r="L91" s="123">
+        <v>81.260627999999997</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="98" t="s">
+      <c r="A92" s="89"/>
+      <c r="B92" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="101"/>
-      <c r="J92" s="102"/>
-      <c r="K92" s="103"/>
-      <c r="L92" s="104"/>
+      <c r="C92" s="98">
+        <v>375193.87</v>
+      </c>
+      <c r="D92" s="99">
+        <v>135210.00868900001</v>
+      </c>
+      <c r="E92" s="100">
+        <v>239983.86131099999</v>
+      </c>
+      <c r="F92" s="98">
+        <v>13214.121166999999</v>
+      </c>
+      <c r="G92" s="99">
+        <v>19</v>
+      </c>
+      <c r="H92" s="99">
+        <v>52817.274759</v>
+      </c>
+      <c r="I92" s="100">
+        <v>11</v>
+      </c>
+      <c r="J92" s="101">
+        <v>7.8625020000000001</v>
+      </c>
+      <c r="K92" s="102">
+        <v>54.201338</v>
+      </c>
+      <c r="L92" s="103">
+        <v>62.063839000000002</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="98" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="101"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="104"/>
+      <c r="C93" s="98">
+        <v>5158.4660000000003</v>
+      </c>
+      <c r="D93" s="99">
+        <v>2362.4918400000001</v>
+      </c>
+      <c r="E93" s="100">
+        <v>2795.9741600000002</v>
+      </c>
+      <c r="F93" s="98">
+        <v>667.263373</v>
+      </c>
+      <c r="G93" s="99">
+        <v>1</v>
+      </c>
+      <c r="H93" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="101">
+        <v>9.8831399999999991</v>
+      </c>
+      <c r="K93" s="102">
+        <v>47.856248999999998</v>
+      </c>
+      <c r="L93" s="103">
+        <v>57.739389000000003</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="98" t="s">
+      <c r="A94" s="89"/>
+      <c r="B94" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="101"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="103"/>
-      <c r="L94" s="104"/>
+      <c r="C94" s="98">
+        <v>62261.936999999998</v>
+      </c>
+      <c r="D94" s="99">
+        <v>37908.813585000004</v>
+      </c>
+      <c r="E94" s="100">
+        <v>24353.123414999998</v>
+      </c>
+      <c r="F94" s="98">
+        <v>2737.0890559999998</v>
+      </c>
+      <c r="G94" s="99">
+        <v>5</v>
+      </c>
+      <c r="H94" s="99">
+        <v>14300.328702999999</v>
+      </c>
+      <c r="I94" s="100">
+        <v>4</v>
+      </c>
+      <c r="J94" s="101">
+        <v>12.008504</v>
+      </c>
+      <c r="K94" s="102">
+        <v>41.031300999999999</v>
+      </c>
+      <c r="L94" s="103">
+        <v>53.039805000000001</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
-      <c r="B95" s="98" t="s">
+      <c r="A95" s="89"/>
+      <c r="B95" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="101"/>
-      <c r="J95" s="102"/>
-      <c r="K95" s="103"/>
-      <c r="L95" s="104"/>
+      <c r="C95" s="98">
+        <v>378093.33399999997</v>
+      </c>
+      <c r="D95" s="99">
+        <v>101253.194668</v>
+      </c>
+      <c r="E95" s="100">
+        <v>276840.13933199999</v>
+      </c>
+      <c r="F95" s="98">
+        <v>7626.0225600000003</v>
+      </c>
+      <c r="G95" s="99">
+        <v>13</v>
+      </c>
+      <c r="H95" s="99">
+        <v>28431.640654999999</v>
+      </c>
+      <c r="I95" s="100">
+        <v>12</v>
+      </c>
+      <c r="J95" s="101">
+        <v>5.1618329999999997</v>
+      </c>
+      <c r="K95" s="102">
+        <v>75.605853999999994</v>
+      </c>
+      <c r="L95" s="103">
+        <v>80.767686999999995</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="90"/>
-      <c r="B96" s="105" t="s">
+      <c r="A96" s="89"/>
+      <c r="B96" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="106"/>
-      <c r="D96" s="107"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="106"/>
-      <c r="G96" s="107"/>
-      <c r="H96" s="107"/>
-      <c r="I96" s="108"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="110"/>
-      <c r="L96" s="111"/>
+      <c r="C96" s="105">
+        <v>201091.625</v>
+      </c>
+      <c r="D96" s="106">
+        <v>86023.467191000003</v>
+      </c>
+      <c r="E96" s="107">
+        <v>115068.157809</v>
+      </c>
+      <c r="F96" s="105">
+        <v>9873.0046590000002</v>
+      </c>
+      <c r="G96" s="106">
+        <v>21</v>
+      </c>
+      <c r="H96" s="106">
+        <v>30602.503559000001</v>
+      </c>
+      <c r="I96" s="107">
+        <v>16</v>
+      </c>
+      <c r="J96" s="108">
+        <v>11.390269999999999</v>
+      </c>
+      <c r="K96" s="109">
+        <v>45.105074999999999</v>
+      </c>
+      <c r="L96" s="110">
+        <v>56.495345</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="118" t="s">
+      <c r="A97" s="89"/>
+      <c r="B97" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="119"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="121"/>
-      <c r="F97" s="119"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="121"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="124"/>
+      <c r="C97" s="118">
+        <v>1129283.226</v>
+      </c>
+      <c r="D97" s="119">
+        <v>463672.25402599998</v>
+      </c>
+      <c r="E97" s="120">
+        <v>665610.97197399999</v>
+      </c>
+      <c r="F97" s="118">
+        <v>61213.200202</v>
+      </c>
+      <c r="G97" s="119">
+        <v>102</v>
+      </c>
+      <c r="H97" s="119">
+        <v>176509.14453200001</v>
+      </c>
+      <c r="I97" s="120">
+        <v>58</v>
+      </c>
+      <c r="J97" s="121">
+        <v>5.5457090000000004</v>
+      </c>
+      <c r="K97" s="122">
+        <v>73.850254000000007</v>
+      </c>
+      <c r="L97" s="123">
+        <v>79.395962999999995</v>
+      </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90"/>
-      <c r="B98" s="105" t="s">
+      <c r="A98" s="89"/>
+      <c r="B98" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="106"/>
-      <c r="D98" s="107"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="106"/>
-      <c r="G98" s="107"/>
-      <c r="H98" s="107"/>
-      <c r="I98" s="108"/>
-      <c r="J98" s="109"/>
-      <c r="K98" s="110"/>
-      <c r="L98" s="111"/>
+      <c r="C98" s="105">
+        <v>865723.65599999996</v>
+      </c>
+      <c r="D98" s="106">
+        <v>407526.41667399998</v>
+      </c>
+      <c r="E98" s="107">
+        <v>458197.23932599998</v>
+      </c>
+      <c r="F98" s="105">
+        <v>48943.279632999998</v>
+      </c>
+      <c r="G98" s="106">
+        <v>83</v>
+      </c>
+      <c r="H98" s="106">
+        <v>172374.576474</v>
+      </c>
+      <c r="I98" s="107">
+        <v>49</v>
+      </c>
+      <c r="J98" s="108">
+        <v>8.575704</v>
+      </c>
+      <c r="K98" s="109">
+        <v>50.979371</v>
+      </c>
+      <c r="L98" s="110">
+        <v>59.555075000000002</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="126"/>
-      <c r="B99" s="127"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="113"/>
-      <c r="H99" s="113"/>
-      <c r="I99" s="113"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="129"/>
-      <c r="L100" s="129"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="127"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
-      <c r="L101" s="129"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="127"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="128"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="128"/>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="128"/>
-      <c r="H102" s="128"/>
-      <c r="I102" s="128"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="129"/>
-      <c r="L102" s="129"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+      <c r="H102" s="127"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="128"/>
+      <c r="K102" s="128"/>
+      <c r="L102" s="128"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C103" s="128"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="127"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="128"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="128"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
-      <c r="F104" s="128"/>
-      <c r="G104" s="128"/>
-      <c r="H104" s="128"/>
-      <c r="I104" s="128"/>
-      <c r="J104" s="129"/>
-      <c r="K104" s="129"/>
-      <c r="L104" s="129"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="127"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="128"/>
+      <c r="K104" s="128"/>
+      <c r="L104" s="128"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
-      <c r="H105" s="128"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="129"/>
-      <c r="K105" s="129"/>
-      <c r="L105" s="129"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="127"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="130"/>
-      <c r="C106" s="128"/>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
-      <c r="F106" s="128"/>
-      <c r="G106" s="128"/>
-      <c r="H106" s="128"/>
-      <c r="I106" s="128"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="129"/>
-      <c r="L106" s="129"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+      <c r="H106" s="127"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="128"/>
+      <c r="K106" s="128"/>
+      <c r="L106" s="128"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="131" t="s">
+      <c r="B107" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
-      <c r="F107" s="128"/>
-      <c r="G107" s="128"/>
-      <c r="H107" s="128"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="129"/>
-      <c r="L107" s="129"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="127"/>
+      <c r="I107" s="127"/>
+      <c r="J107" s="128"/>
+      <c r="K107" s="128"/>
+      <c r="L107" s="128"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="128"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="128"/>
-      <c r="H108" s="128"/>
-      <c r="I108" s="128"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="129"/>
-      <c r="L108" s="129"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="127"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="128"/>
+      <c r="K108" s="128"/>
+      <c r="L108" s="128"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="128"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="128"/>
-      <c r="H109" s="128"/>
-      <c r="I109" s="128"/>
-      <c r="J109" s="129"/>
-      <c r="K109" s="129"/>
-      <c r="L109" s="129"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="127"/>
+      <c r="H109" s="127"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="128"/>
+      <c r="K109" s="128"/>
+      <c r="L109" s="128"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="128"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="128"/>
-      <c r="H110" s="128"/>
-      <c r="I110" s="128"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="129"/>
-      <c r="L110" s="129"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="128"/>
+      <c r="K110" s="128"/>
+      <c r="L110" s="128"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="136" t="s">
+      <c r="B111" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="128"/>
-      <c r="H111" s="128"/>
-      <c r="I111" s="128"/>
-      <c r="J111" s="129"/>
-      <c r="K111" s="129"/>
-      <c r="L111" s="129"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="127"/>
+      <c r="H111" s="127"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="128"/>
+      <c r="K111" s="128"/>
+      <c r="L111" s="128"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="128"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="128"/>
-      <c r="H112" s="128"/>
-      <c r="I112" s="128"/>
-      <c r="J112" s="129"/>
-      <c r="K112" s="129"/>
-      <c r="L112" s="129"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="127"/>
+      <c r="J112" s="128"/>
+      <c r="K112" s="128"/>
+      <c r="L112" s="128"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="132"/>
-      <c r="C113" s="128"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="128"/>
-      <c r="H113" s="128"/>
-      <c r="I113" s="128"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
+      <c r="B113" s="131"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="127"/>
+      <c r="I113" s="127"/>
+      <c r="J113" s="128"/>
+      <c r="K113" s="128"/>
+      <c r="L113" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{ACCB13A5-D0F2-433A-A379-727FD52AA72B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{46D9F02C-F0EC-45FB-A72B-59E40731C84B}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{78BBA708-DB5A-4AB8-A057-59EBDD16F525}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{059EA1E8-98BF-4601-AA1D-C4EEE2616CF4}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{ECA7A8EA-DF19-43D4-A4E9-C59E5D38CE32}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{4F8A6ECF-36E3-420D-B399-685396793A87}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{BB47A669-D794-4138-99E6-3D22F453CE71}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{5F8144B8-C763-4388-880A-2EE6D6014516}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6DF7451B-85B8-4FFB-A6AC-9B534C93E471}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6E8487B5-6481-43C3-9D75-49AB43BFE862}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2025_Annex_Table_Tab05.xlsx
+++ b/AfDD_2025_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32879C7C-A9FD-48A4-883F-AE44FE2EEFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DBD3F3-5785-4885-82E0-CA054AD5FCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{13766776-CFD5-4448-8131-D1F5888DC765}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A0CEF3-5431-4D50-9424-1151527E1BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Population Prospects 2024 and World Urbanization Prospects 2018 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -1606,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA7EA3-DCF7-48F7-B1C6-C5D4D7A37650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1F349-2D93-445C-9DFC-E85A7CBE81CF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1614,17 +1614,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.140625" style="132" customWidth="1"/>
-    <col min="7" max="9" width="14.140625" style="133" customWidth="1"/>
-    <col min="10" max="12" width="14.140625" style="134" customWidth="1"/>
-    <col min="13" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.1796875" style="132" customWidth="1"/>
+    <col min="7" max="9" width="14.1796875" style="133" customWidth="1"/>
+    <col min="10" max="12" width="14.1796875" style="134" customWidth="1"/>
+    <col min="13" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1639,7 +1639,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>90.055231000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>56.865217000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>60.813011000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>63.266464999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>78.280603999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>90.554723999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>69.100669999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>48.367953</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>78.107003000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>81.625349</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44"/>
       <c r="B13" s="45" t="s">
         <v>34</v>
@@ -2093,7 +2093,7 @@
         <v>71.703622999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>91.846655999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>80.295145000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>105.177403</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>95.358131</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>77.930576000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>96.682547</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>47</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>69.802300000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>68.646041999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>72.857270999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
         <v>53</v>
@@ -2471,7 +2471,7 @@
         <v>84.288452000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>72.042088000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>56</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>52.231814</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>58</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>74.91234</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>74.024856999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>62</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>67.673934000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>64</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>75.153744000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>66</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>39.016531000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>71.095797000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>70</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>39.809888000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>72</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>97.018317999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>74</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>74.715064999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>76</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>78.129581000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>78</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>84.389891000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>80</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>85.489677</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
         <v>82</v>
@@ -3039,7 +3039,7 @@
         <v>70.407394999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>83</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>58.771003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>85</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>59.756669000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>87</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>48.896664000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>89</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>86.051445000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>91</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>51.196573999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="15" t="s">
         <v>93</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>50.605089999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44"/>
       <c r="B45" s="45" t="s">
         <v>95</v>
@@ -3303,7 +3303,7 @@
         <v>59.212907999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>96</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>81.567773000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>98</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>81.890840999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>100</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>49.144823000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>102</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>78.077499000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>104</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>77.647544999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>106</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>66.142585999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>108</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>80.779572000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>110</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>73.565732999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>112</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>76.287139999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>114</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>95.562808000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>116</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>98.164101000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>118</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>80.246407000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>120</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>73.070238000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>122</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>71.639711000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
         <v>124</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>75.581260999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="44"/>
       <c r="B61" s="45" t="s">
         <v>126</v>
@@ -3909,7 +3909,7 @@
         <v>77.291202999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="81"/>
       <c r="B62" s="82" t="s">
         <v>127</v>
@@ -3945,7 +3945,7 @@
         <v>73.629283999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="81"/>
       <c r="B63" s="82" t="s">
         <v>128</v>
@@ -3981,7 +3981,7 @@
         <v>52.776881000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="89"/>
       <c r="B64" s="90" t="s">
         <v>129</v>
@@ -4017,7 +4017,7 @@
         <v>48.650196000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="89"/>
       <c r="B65" s="97" t="s">
         <v>130</v>
@@ -4053,7 +4053,7 @@
         <v>54.411741999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="89"/>
       <c r="B66" s="104" t="s">
         <v>131</v>
@@ -4089,7 +4089,7 @@
         <v>58.611232000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="89"/>
       <c r="B67" s="97" t="s">
         <v>132</v>
@@ -4125,7 +4125,7 @@
         <v>70.152959999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="89"/>
       <c r="B68" s="97" t="s">
         <v>133</v>
@@ -4161,7 +4161,7 @@
         <v>76.212487999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="89"/>
       <c r="B69" s="97" t="s">
         <v>134</v>
@@ -4197,7 +4197,7 @@
         <v>81.699081000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="89"/>
       <c r="B70" s="97" t="s">
         <v>135</v>
@@ -4233,7 +4233,7 @@
         <v>83.613372999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="89"/>
       <c r="B71" s="97" t="s">
         <v>136</v>
@@ -4269,7 +4269,7 @@
         <v>77.291202999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="89"/>
       <c r="B72" s="97" t="s">
         <v>137</v>
@@ -4305,7 +4305,7 @@
         <v>75.611891999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="89"/>
       <c r="B73" s="97" t="s">
         <v>138</v>
@@ -4341,7 +4341,7 @@
         <v>70.258182000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="89"/>
       <c r="B74" s="97" t="s">
         <v>139</v>
@@ -4377,7 +4377,7 @@
         <v>59.104154999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="89"/>
       <c r="B75" s="97" t="s">
         <v>140</v>
@@ -4413,7 +4413,7 @@
         <v>75.235557</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="89"/>
       <c r="B76" s="117" t="s">
         <v>141</v>
@@ -4449,7 +4449,7 @@
         <v>45.840972999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="89"/>
       <c r="B77" s="97" t="s">
         <v>142</v>
@@ -4485,7 +4485,7 @@
         <v>50.755839999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="89"/>
       <c r="B78" s="97" t="s">
         <v>143</v>
@@ -4521,7 +4521,7 @@
         <v>55.435673999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="89"/>
       <c r="B79" s="104" t="s">
         <v>144</v>
@@ -4557,7 +4557,7 @@
         <v>54.494903999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="89"/>
       <c r="B80" s="117" t="s">
         <v>145</v>
@@ -4593,7 +4593,7 @@
         <v>71.937128000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="89"/>
       <c r="B81" s="97" t="s">
         <v>146</v>
@@ -4629,7 +4629,7 @@
         <v>47.942610999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="89"/>
       <c r="B82" s="97" t="s">
         <v>147</v>
@@ -4665,7 +4665,7 @@
         <v>74.013863999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="89"/>
       <c r="B83" s="104" t="s">
         <v>148</v>
@@ -4701,7 +4701,7 @@
         <v>53.685889000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="89"/>
       <c r="B84" s="117" t="s">
         <v>149</v>
@@ -4737,7 +4737,7 @@
         <v>84.035892000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="89"/>
       <c r="B85" s="124" t="s">
         <v>150</v>
@@ -4773,7 +4773,7 @@
         <v>65.102074999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="89"/>
       <c r="B86" s="97" t="s">
         <v>151</v>
@@ -4809,7 +4809,7 @@
         <v>72.081839000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="89"/>
       <c r="B87" s="97" t="s">
         <v>152</v>
@@ -4845,7 +4845,7 @@
         <v>57.026443</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="89"/>
       <c r="B88" s="97" t="s">
         <v>153</v>
@@ -4881,7 +4881,7 @@
         <v>54.938817</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="89"/>
       <c r="B89" s="97" t="s">
         <v>154</v>
@@ -4917,7 +4917,7 @@
         <v>51.401290000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="89"/>
       <c r="B90" s="104" t="s">
         <v>155</v>
@@ -4953,7 +4953,7 @@
         <v>51.009909</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="89"/>
       <c r="B91" s="117" t="s">
         <v>156</v>
@@ -4989,7 +4989,7 @@
         <v>81.260627999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="89"/>
       <c r="B92" s="97" t="s">
         <v>157</v>
@@ -5025,7 +5025,7 @@
         <v>62.063839000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="89"/>
       <c r="B93" s="97" t="s">
         <v>158</v>
@@ -5061,7 +5061,7 @@
         <v>57.739389000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="89"/>
       <c r="B94" s="97" t="s">
         <v>159</v>
@@ -5097,7 +5097,7 @@
         <v>53.039805000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="89"/>
       <c r="B95" s="97" t="s">
         <v>160</v>
@@ -5133,7 +5133,7 @@
         <v>80.767686999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="89"/>
       <c r="B96" s="104" t="s">
         <v>161</v>
@@ -5169,7 +5169,7 @@
         <v>56.495345</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="89"/>
       <c r="B97" s="117" t="s">
         <v>162</v>
@@ -5205,7 +5205,7 @@
         <v>79.395962999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="89"/>
       <c r="B98" s="104" t="s">
         <v>163</v>
@@ -5241,7 +5241,7 @@
         <v>59.555075000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="125"/>
       <c r="B99" s="126"/>
       <c r="C99" s="112"/>
@@ -5255,7 +5255,7 @@
       <c r="K99" s="115"/>
       <c r="L99" s="115"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="K100" s="128"/>
       <c r="L100" s="128"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="K101" s="128"/>
       <c r="L101" s="128"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="K102" s="128"/>
       <c r="L102" s="128"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="K103" s="128"/>
       <c r="L103" s="128"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="K104" s="128"/>
       <c r="L104" s="128"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C105" s="127"/>
       <c r="D105" s="127"/>
       <c r="E105" s="127"/>
@@ -5342,7 +5342,7 @@
       <c r="K105" s="128"/>
       <c r="L105" s="128"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="129"/>
       <c r="C106" s="127"/>
       <c r="D106" s="127"/>
@@ -5355,7 +5355,7 @@
       <c r="K106" s="128"/>
       <c r="L106" s="128"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B107" s="130" t="s">
         <v>169</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="K107" s="128"/>
       <c r="L107" s="128"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="127"/>
       <c r="D108" s="127"/>
@@ -5383,7 +5383,7 @@
       <c r="K108" s="128"/>
       <c r="L108" s="128"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="135" t="s">
         <v>171</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="K109" s="128"/>
       <c r="L109" s="128"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="135" t="s">
         <v>172</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="K110" s="128"/>
       <c r="L110" s="128"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="135" t="s">
         <v>173</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="K111" s="128"/>
       <c r="L111" s="128"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="K112" s="128"/>
       <c r="L112" s="128"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="131"/>
       <c r="C113" s="127"/>
       <c r="D113" s="127"/>
@@ -5458,11 +5458,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{4F8A6ECF-36E3-420D-B399-685396793A87}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{BB47A669-D794-4138-99E6-3D22F453CE71}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{5F8144B8-C763-4388-880A-2EE6D6014516}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6DF7451B-85B8-4FFB-A6AC-9B534C93E471}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{6E8487B5-6481-43C3-9D75-49AB43BFE862}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{B96A7D6C-2888-4BD5-86A5-502B3494A686}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{BCE40942-7764-49B1-B733-E09847A5BA2A}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{24457F82-B3BF-4757-A442-6E25E01D7C4F}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0091183C-E53E-4F80-A077-5CEF753185D5}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{20A8A213-A34C-4B2E-A825-C05F3D6A6A18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2025_Annex_Table_Tab05.xlsx
+++ b/AfDD_2025_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DBD3F3-5785-4885-82E0-CA054AD5FCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B7C91F-421D-4D7B-9034-B332AB94AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A0CEF3-5431-4D50-9424-1151527E1BDD}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{697EE6EC-E0C8-4D38-8C82-E51044E21B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="174">
   <si>
     <t>Table 5: Demographic estimates</t>
   </si>
@@ -48,34 +48,34 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Population (thousands), 2023</t>
-  </si>
-  <si>
-    <t>Urban population (thousands), 2023</t>
-  </si>
-  <si>
-    <t>Rural population (thousands), 2023</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands), 2023</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants, 2023</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands), 2023</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of over 1 million inhabitants, 2023</t>
-  </si>
-  <si>
-    <t>Old-age dependency ratio [Population aged 65+]/[Population aged 15-64]*100, 2023</t>
-  </si>
-  <si>
-    <t>Child dependency ratio [Population aged &lt;15]/[Population aged 15-64]*100, 2023</t>
-  </si>
-  <si>
-    <t>Total dependency ratio (child dependency ratio + old-age dependency ratio), 2023</t>
+    <t>Population (thousands), 2024</t>
+  </si>
+  <si>
+    <t>Urban population (thousands), 2024</t>
+  </si>
+  <si>
+    <t>Rural population (thousands), 2024</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands), 2024</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants, 2024</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands), 2024</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of over 1 million inhabitants, 2024</t>
+  </si>
+  <si>
+    <t>Old-age dependency ratio [Population aged 65+]/[Population aged 15-64]*100, 2024</t>
+  </si>
+  <si>
+    <t>Child dependency ratio [Population aged &lt;15]/[Population aged 15-64]*100, 2024</t>
+  </si>
+  <si>
+    <t>Total dependency ratio (child dependency ratio + old-age dependency ratio), 2024</t>
   </si>
   <si>
     <t>AGO</t>
@@ -540,7 +540,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Population Prospects 2024 and World Urbanization Prospects 2018 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -549,16 +549,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,16 +702,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -938,7 +928,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1320,7 +1310,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1606,11 +1595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1F349-2D93-445C-9DFC-E85A7CBE81CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DA68-EA38-403F-AE02-79A54CD95CB5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1618,9 +1607,9 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.1796875" style="132" customWidth="1"/>
-    <col min="7" max="9" width="14.1796875" style="133" customWidth="1"/>
-    <col min="10" max="12" width="14.1796875" style="134" customWidth="1"/>
+    <col min="3" max="6" width="14.1796875" style="131" customWidth="1"/>
+    <col min="7" max="9" width="14.1796875" style="132" customWidth="1"/>
+    <col min="10" max="12" width="14.1796875" style="133" customWidth="1"/>
     <col min="13" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,34 +1674,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="17">
-        <v>36749.906000000003</v>
+        <v>37885.849000000002</v>
       </c>
       <c r="D3" s="18">
-        <v>25242.775432999999</v>
+        <v>26247.695046000001</v>
       </c>
       <c r="E3" s="19">
-        <v>11507.130567</v>
+        <v>11638.153953999999</v>
       </c>
       <c r="F3" s="17">
-        <v>6014.9438309999996</v>
+        <v>5263.7482179999997</v>
       </c>
       <c r="G3" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="18">
-        <v>9457.2471370000003</v>
+        <v>10833.953367</v>
       </c>
       <c r="I3" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="20">
-        <v>5.3433159999999997</v>
+        <v>5.4026800000000001</v>
       </c>
       <c r="K3" s="21">
-        <v>84.711915000000005</v>
+        <v>84.003435999999994</v>
       </c>
       <c r="L3" s="22">
-        <v>90.055231000000006</v>
+        <v>89.406115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1723,13 +1712,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="24">
-        <v>2480.2440000000001</v>
+        <v>2521.1390000000001</v>
       </c>
       <c r="D4" s="25">
-        <v>1807.279395</v>
+        <v>1852.7850510000001</v>
       </c>
       <c r="E4" s="26">
-        <v>672.96460500000001</v>
+        <v>668.35394899999994</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>17</v>
@@ -1744,13 +1733,13 @@
         <v>17</v>
       </c>
       <c r="J4" s="27">
-        <v>6.2270019999999997</v>
+        <v>6.322711</v>
       </c>
       <c r="K4" s="28">
-        <v>50.638213999999998</v>
+        <v>50.332711000000003</v>
       </c>
       <c r="L4" s="29">
-        <v>56.865217000000001</v>
+        <v>56.655422000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1761,13 +1750,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="24">
-        <v>1230.5060000000001</v>
+        <v>1242.8219999999999</v>
       </c>
       <c r="D5" s="31">
-        <v>305.04243700000001</v>
+        <v>310.86706700000002</v>
       </c>
       <c r="E5" s="32">
-        <v>925.46356300000002</v>
+        <v>931.95493299999998</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>17</v>
@@ -1782,13 +1771,13 @@
         <v>17</v>
       </c>
       <c r="J5" s="27">
-        <v>6.6690189999999996</v>
+        <v>6.8322690000000001</v>
       </c>
       <c r="K5" s="33">
-        <v>54.143991999999997</v>
+        <v>53.460630999999999</v>
       </c>
       <c r="L5" s="34">
-        <v>60.813011000000003</v>
+        <v>60.292900000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1799,13 +1788,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="24">
-        <v>2311.4720000000002</v>
+        <v>2337.4229999999998</v>
       </c>
       <c r="D6" s="31">
-        <v>703.03420900000003</v>
+        <v>722.19358399999999</v>
       </c>
       <c r="E6" s="32">
-        <v>1608.4377910000001</v>
+        <v>1615.2294159999999</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>17</v>
@@ -1820,13 +1809,13 @@
         <v>17</v>
       </c>
       <c r="J6" s="27">
-        <v>6.2480529999999996</v>
+        <v>6.2583089999999997</v>
       </c>
       <c r="K6" s="33">
-        <v>57.018411999999998</v>
+        <v>56.015706999999999</v>
       </c>
       <c r="L6" s="34">
-        <v>63.266464999999997</v>
+        <v>62.274016000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1837,34 +1826,34 @@
         <v>23</v>
       </c>
       <c r="C7" s="24">
-        <v>21104.482</v>
+        <v>21655.286</v>
       </c>
       <c r="D7" s="31">
-        <v>3857.8993099999998</v>
+        <v>4027.4500899999998</v>
       </c>
       <c r="E7" s="32">
-        <v>17246.582689999999</v>
-      </c>
-      <c r="F7" s="24">
-        <v>987.06794300000001</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1</v>
+        <v>17627.835910000002</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="31">
-        <v>1221.960386</v>
+        <v>2297.789679</v>
       </c>
       <c r="I7" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="27">
-        <v>4.6220369999999997</v>
+        <v>4.5604069999999997</v>
       </c>
       <c r="K7" s="33">
-        <v>73.658567000000005</v>
+        <v>71.780562000000003</v>
       </c>
       <c r="L7" s="34">
-        <v>78.280603999999997</v>
+        <v>76.340969000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1875,34 +1864,34 @@
         <v>25</v>
       </c>
       <c r="C8" s="24">
-        <v>33635.160000000003</v>
+        <v>34631.766000000003</v>
       </c>
       <c r="D8" s="31">
-        <v>13034.633555</v>
+        <v>13619.288296999999</v>
       </c>
       <c r="E8" s="32">
-        <v>20600.526445</v>
+        <v>21012.477703</v>
       </c>
       <c r="F8" s="24">
-        <v>2877.396045</v>
+        <v>3011.2709960000002</v>
       </c>
       <c r="G8" s="31">
         <v>5</v>
       </c>
       <c r="H8" s="31">
-        <v>2886.7796170000001</v>
+        <v>2980.7707930000001</v>
       </c>
       <c r="I8" s="32">
         <v>2</v>
       </c>
       <c r="J8" s="27">
-        <v>5.2722300000000004</v>
+        <v>5.2186849999999998</v>
       </c>
       <c r="K8" s="33">
-        <v>85.282494</v>
+        <v>84.293098999999998</v>
       </c>
       <c r="L8" s="34">
-        <v>90.554723999999993</v>
+        <v>89.511782999999994</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1913,16 +1902,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="35">
-        <v>2963.0949999999998</v>
+        <v>3030.1309999999999</v>
       </c>
       <c r="D9" s="31">
-        <v>1626.3243219999999</v>
+        <v>1690.661591</v>
       </c>
       <c r="E9" s="32">
-        <v>1336.7706780000001</v>
+        <v>1339.469409</v>
       </c>
       <c r="F9" s="35">
-        <v>494.36863699999998</v>
+        <v>513.54162399999996</v>
       </c>
       <c r="G9" s="31">
         <v>1</v>
@@ -1934,13 +1923,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="36">
-        <v>6.0392479999999997</v>
+        <v>6.1889529999999997</v>
       </c>
       <c r="K9" s="33">
-        <v>63.061421000000003</v>
+        <v>62.310535999999999</v>
       </c>
       <c r="L9" s="34">
-        <v>69.100669999999994</v>
+        <v>68.499488999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1951,34 +1940,34 @@
         <v>29</v>
       </c>
       <c r="C10" s="35">
-        <v>63212.383999999998</v>
+        <v>64007.186999999998</v>
       </c>
       <c r="D10" s="31">
-        <v>43502.130545</v>
+        <v>44355.700447000003</v>
       </c>
       <c r="E10" s="32">
-        <v>19710.253454999998</v>
+        <v>19651.486552999999</v>
       </c>
       <c r="F10" s="35">
-        <v>6313.1748109999999</v>
+        <v>6444.0247470000004</v>
       </c>
       <c r="G10" s="31">
         <v>9</v>
       </c>
       <c r="H10" s="31">
-        <v>23516.572025000001</v>
+        <v>24007.275765999999</v>
       </c>
       <c r="I10" s="32">
         <v>6</v>
       </c>
       <c r="J10" s="36">
-        <v>9.6663200000000007</v>
+        <v>9.9228550000000002</v>
       </c>
       <c r="K10" s="33">
-        <v>38.701633000000001</v>
+        <v>38.388570999999999</v>
       </c>
       <c r="L10" s="34">
-        <v>48.367953</v>
+        <v>48.311425</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1989,34 +1978,34 @@
         <v>31</v>
       </c>
       <c r="C11" s="24">
-        <v>20723.965</v>
+        <v>21314.955999999998</v>
       </c>
       <c r="D11" s="25">
-        <v>9602.4491830000006</v>
+        <v>9999.6984580000008</v>
       </c>
       <c r="E11" s="26">
-        <v>11121.515817</v>
+        <v>11315.257541999999</v>
       </c>
       <c r="F11" s="24">
-        <v>1373.0808259999999</v>
+        <v>1421.5741270000001</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
       </c>
       <c r="H11" s="25">
-        <v>3233.9698520000002</v>
+        <v>3376.8469070000001</v>
       </c>
       <c r="I11" s="26">
         <v>1</v>
       </c>
       <c r="J11" s="27">
-        <v>3.3820190000000001</v>
+        <v>3.4397700000000002</v>
       </c>
       <c r="K11" s="28">
-        <v>74.724984000000006</v>
+        <v>73.251485000000002</v>
       </c>
       <c r="L11" s="29">
-        <v>78.107003000000006</v>
+        <v>76.691254999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2027,34 +2016,34 @@
         <v>33</v>
       </c>
       <c r="C12" s="38">
-        <v>16340.822</v>
+        <v>16634.373</v>
       </c>
       <c r="D12" s="39">
-        <v>5313.5450899999996</v>
+        <v>5434.4496589999999</v>
       </c>
       <c r="E12" s="40">
-        <v>11027.27691</v>
+        <v>11199.923341</v>
       </c>
       <c r="F12" s="38">
-        <v>914.816686</v>
+        <v>926.80695800000001</v>
       </c>
       <c r="G12" s="39">
         <v>2</v>
       </c>
       <c r="H12" s="39">
-        <v>1370.742784</v>
+        <v>1389.673014</v>
       </c>
       <c r="I12" s="40">
         <v>1</v>
       </c>
       <c r="J12" s="41">
-        <v>6.5718249999999996</v>
+        <v>6.4866239999999999</v>
       </c>
       <c r="K12" s="42">
-        <v>75.053522999999998</v>
+        <v>73.613828999999996</v>
       </c>
       <c r="L12" s="43">
-        <v>81.625349</v>
+        <v>80.100453000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2063,34 +2052,34 @@
         <v>34</v>
       </c>
       <c r="C13" s="46">
-        <v>200752.03599999999</v>
+        <v>205260.932</v>
       </c>
       <c r="D13" s="47">
-        <v>104995.11347900001</v>
+        <v>108260.78929099999</v>
       </c>
       <c r="E13" s="48">
-        <v>95756.922521</v>
+        <v>97000.142709000007</v>
       </c>
       <c r="F13" s="46">
-        <v>18974.848779</v>
+        <v>17580.966670000002</v>
       </c>
       <c r="G13" s="47">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="47">
-        <v>41687.271801000003</v>
+        <v>44886.309526999998</v>
       </c>
       <c r="I13" s="48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="49">
-        <v>6.0041070000000003</v>
+        <v>6.063326</v>
       </c>
       <c r="K13" s="50">
-        <v>65.699516000000003</v>
+        <v>64.745057000000003</v>
       </c>
       <c r="L13" s="51">
-        <v>71.703622999999993</v>
+        <v>70.808383000000006</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2101,13 +2090,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="35">
-        <v>13689.45</v>
+        <v>14047.786</v>
       </c>
       <c r="D14" s="31">
-        <v>2023.8482879999999</v>
+        <v>2129.644358</v>
       </c>
       <c r="E14" s="32">
-        <v>11665.601712</v>
+        <v>11918.141642000001</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>17</v>
@@ -2116,19 +2105,19 @@
         <v>17</v>
       </c>
       <c r="H14" s="31">
-        <v>1265.9661980000001</v>
+        <v>1336.059197</v>
       </c>
       <c r="I14" s="32">
         <v>1</v>
       </c>
       <c r="J14" s="36">
-        <v>4.8159770000000002</v>
+        <v>4.7979089999999998</v>
       </c>
       <c r="K14" s="33">
-        <v>87.030679000000006</v>
+        <v>84.706277</v>
       </c>
       <c r="L14" s="34">
-        <v>91.846655999999996</v>
+        <v>89.504186000000004</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2139,34 +2128,34 @@
         <v>38</v>
       </c>
       <c r="C15" s="35">
-        <v>28372.687000000002</v>
+        <v>29123.743999999999</v>
       </c>
       <c r="D15" s="31">
-        <v>16829.259293999999</v>
+        <v>17442.792755999999</v>
       </c>
       <c r="E15" s="32">
-        <v>11543.427706</v>
+        <v>11680.951244</v>
       </c>
       <c r="F15" s="35">
-        <v>2616.602547</v>
+        <v>2721.2744980000002</v>
       </c>
       <c r="G15" s="31">
         <v>5</v>
       </c>
       <c r="H15" s="31">
-        <v>8700.3370309999991</v>
+        <v>9034.2413269999997</v>
       </c>
       <c r="I15" s="32">
         <v>2</v>
       </c>
       <c r="J15" s="36">
-        <v>5.0029029999999999</v>
+        <v>5.0119429999999996</v>
       </c>
       <c r="K15" s="33">
-        <v>75.292242000000002</v>
+        <v>74.318527000000003</v>
       </c>
       <c r="L15" s="34">
-        <v>80.295145000000005</v>
+        <v>79.330470000000005</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2177,16 +2166,16 @@
         <v>40</v>
       </c>
       <c r="C16" s="35">
-        <v>5152.42</v>
+        <v>5330.69</v>
       </c>
       <c r="D16" s="31">
-        <v>2247.1764589999998</v>
+        <v>2352.433497</v>
       </c>
       <c r="E16" s="32">
-        <v>2905.2435409999998</v>
+        <v>2978.2565030000001</v>
       </c>
       <c r="F16" s="35">
-        <v>940.95540700000004</v>
+        <v>979.30384000000004</v>
       </c>
       <c r="G16" s="31">
         <v>1</v>
@@ -2198,13 +2187,13 @@
         <v>17</v>
       </c>
       <c r="J16" s="36">
-        <v>4.2989790000000001</v>
+        <v>4.4040150000000002</v>
       </c>
       <c r="K16" s="33">
-        <v>100.878424</v>
+        <v>100.322912</v>
       </c>
       <c r="L16" s="34">
-        <v>105.177403</v>
+        <v>104.726927</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2215,13 +2204,13 @@
         <v>42</v>
       </c>
       <c r="C17" s="53">
-        <v>19319.063999999998</v>
+        <v>20299.123</v>
       </c>
       <c r="D17" s="54">
-        <v>4707.2831340000002</v>
+        <v>5012.0564599999998</v>
       </c>
       <c r="E17" s="55">
-        <v>14611.780865999999</v>
+        <v>15287.06654</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>17</v>
@@ -2230,19 +2219,19 @@
         <v>17</v>
       </c>
       <c r="H17" s="54">
-        <v>1732.6702760000001</v>
+        <v>1840.3959319999999</v>
       </c>
       <c r="I17" s="55">
         <v>1</v>
       </c>
       <c r="J17" s="56">
-        <v>4.053299</v>
+        <v>4.0524060000000004</v>
       </c>
       <c r="K17" s="57">
-        <v>91.304832000000005</v>
+        <v>88.868050999999994</v>
       </c>
       <c r="L17" s="58">
-        <v>95.358131</v>
+        <v>92.920456999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2253,13 +2242,13 @@
         <v>44</v>
       </c>
       <c r="C18" s="53">
-        <v>6182.8850000000002</v>
+        <v>6332.9610000000002</v>
       </c>
       <c r="D18" s="54">
-        <v>4277.8144739999998</v>
+        <v>4410.1473809999998</v>
       </c>
       <c r="E18" s="55">
-        <v>1905.070526</v>
+        <v>1922.813619</v>
       </c>
       <c r="F18" s="53" t="s">
         <v>17</v>
@@ -2268,19 +2257,19 @@
         <v>17</v>
       </c>
       <c r="H18" s="54">
-        <v>4003.4891790000001</v>
+        <v>4129.013363</v>
       </c>
       <c r="I18" s="55">
         <v>2</v>
       </c>
       <c r="J18" s="56">
-        <v>5.1861220000000001</v>
+        <v>5.2780639999999996</v>
       </c>
       <c r="K18" s="57">
-        <v>72.744452999999993</v>
+        <v>71.498622999999995</v>
       </c>
       <c r="L18" s="58">
-        <v>77.930576000000002</v>
+        <v>76.776686999999995</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2291,34 +2280,34 @@
         <v>46</v>
       </c>
       <c r="C19" s="24">
-        <v>105789.731</v>
+        <v>109276.265</v>
       </c>
       <c r="D19" s="25">
-        <v>50190.879975999997</v>
+        <v>52512.709146000001</v>
       </c>
       <c r="E19" s="26">
-        <v>55598.851024000003</v>
+        <v>56763.555853999998</v>
       </c>
       <c r="F19" s="24">
-        <v>5887.0331180000003</v>
+        <v>6169.3799019999997</v>
       </c>
       <c r="G19" s="25">
         <v>9</v>
       </c>
       <c r="H19" s="25">
-        <v>29565.141148999999</v>
+        <v>30949.908651000002</v>
       </c>
       <c r="I19" s="26">
         <v>7</v>
       </c>
       <c r="J19" s="27">
-        <v>6.0349310000000003</v>
+        <v>6.0434070000000002</v>
       </c>
       <c r="K19" s="28">
-        <v>90.647615999999999</v>
+        <v>90.453249999999997</v>
       </c>
       <c r="L19" s="29">
-        <v>96.682547</v>
+        <v>96.496656999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2329,16 +2318,16 @@
         <v>48</v>
       </c>
       <c r="C20" s="53">
-        <v>1847.549</v>
+        <v>1892.5160000000001</v>
       </c>
       <c r="D20" s="54">
-        <v>1375.4632799999999</v>
+        <v>1417.00243</v>
       </c>
       <c r="E20" s="55">
-        <v>472.08571999999998</v>
+        <v>475.51357000000002</v>
       </c>
       <c r="F20" s="53">
-        <v>567.672146</v>
+        <v>587.565966</v>
       </c>
       <c r="G20" s="54">
         <v>1</v>
@@ -2350,13 +2339,13 @@
         <v>17</v>
       </c>
       <c r="J20" s="56">
-        <v>6.1533199999999999</v>
+        <v>6.2483769999999996</v>
       </c>
       <c r="K20" s="57">
-        <v>63.648980000000002</v>
+        <v>63.167158000000001</v>
       </c>
       <c r="L20" s="58">
-        <v>69.802300000000002</v>
+        <v>69.415535000000006</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2367,16 +2356,16 @@
         <v>50</v>
       </c>
       <c r="C21" s="53">
-        <v>2484.788</v>
+        <v>2538.9520000000002</v>
       </c>
       <c r="D21" s="54">
-        <v>2261.877669</v>
+        <v>2318.2409029999999</v>
       </c>
       <c r="E21" s="55">
-        <v>222.91033100000001</v>
+        <v>220.711097</v>
       </c>
       <c r="F21" s="53">
-        <v>946.843076</v>
+        <v>964.47182399999997</v>
       </c>
       <c r="G21" s="54">
         <v>1</v>
@@ -2388,13 +2377,13 @@
         <v>17</v>
       </c>
       <c r="J21" s="56">
-        <v>6.816789</v>
+        <v>6.8693119999999999</v>
       </c>
       <c r="K21" s="57">
-        <v>61.829253000000001</v>
+        <v>61.387884999999997</v>
       </c>
       <c r="L21" s="58">
-        <v>68.646041999999994</v>
+        <v>68.257198000000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2405,13 +2394,13 @@
         <v>52</v>
       </c>
       <c r="C22" s="60">
-        <v>230.87100000000001</v>
+        <v>235.536</v>
       </c>
       <c r="D22" s="61">
-        <v>176.387753</v>
+        <v>181.39569499999999</v>
       </c>
       <c r="E22" s="62">
-        <v>54.483246999999999</v>
+        <v>54.140304999999998</v>
       </c>
       <c r="F22" s="60" t="s">
         <v>17</v>
@@ -2426,13 +2415,13 @@
         <v>17</v>
       </c>
       <c r="J22" s="63">
-        <v>6.6894770000000001</v>
+        <v>6.6985789999999996</v>
       </c>
       <c r="K22" s="64">
-        <v>66.167794999999998</v>
+        <v>64.917342000000005</v>
       </c>
       <c r="L22" s="65">
-        <v>72.857270999999997</v>
+        <v>71.615921</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2441,34 +2430,34 @@
         <v>53</v>
       </c>
       <c r="C23" s="46">
-        <v>183069.44500000001</v>
+        <v>189077.573</v>
       </c>
       <c r="D23" s="47">
-        <v>84089.990325000006</v>
+        <v>87776.422625000007</v>
       </c>
       <c r="E23" s="48">
-        <v>98979.454675000001</v>
+        <v>101301.150375</v>
       </c>
       <c r="F23" s="46">
-        <v>10959.106295</v>
+        <v>11421.996031000001</v>
       </c>
       <c r="G23" s="47">
         <v>17</v>
       </c>
       <c r="H23" s="47">
-        <v>45267.603833000001</v>
+        <v>47289.618470000001</v>
       </c>
       <c r="I23" s="48">
         <v>13</v>
       </c>
       <c r="J23" s="49">
-        <v>5.4501999999999997</v>
+        <v>5.4893349999999996</v>
       </c>
       <c r="K23" s="50">
-        <v>78.838252999999995</v>
+        <v>77.737780999999998</v>
       </c>
       <c r="L23" s="51">
-        <v>84.288452000000007</v>
+        <v>83.227114999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2479,13 +2468,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="67">
-        <v>850.38699999999994</v>
+        <v>866.62800000000004</v>
       </c>
       <c r="D24" s="68">
-        <v>256.23861099999999</v>
+        <v>263.610905</v>
       </c>
       <c r="E24" s="69">
-        <v>594.14838899999995</v>
+        <v>603.01709500000004</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>17</v>
@@ -2500,13 +2489,13 @@
         <v>17</v>
       </c>
       <c r="J24" s="70">
-        <v>7.6962450000000002</v>
+        <v>7.6573089999999997</v>
       </c>
       <c r="K24" s="71">
-        <v>64.345843000000002</v>
+        <v>63.556710000000002</v>
       </c>
       <c r="L24" s="72">
-        <v>72.042088000000007</v>
+        <v>71.214018999999993</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2517,16 +2506,16 @@
         <v>57</v>
       </c>
       <c r="C25" s="35">
-        <v>1152.944</v>
+        <v>1168.722</v>
       </c>
       <c r="D25" s="31">
-        <v>905.660571</v>
+        <v>920.15820499999995</v>
       </c>
       <c r="E25" s="32">
-        <v>247.28342900000001</v>
+        <v>248.563795</v>
       </c>
       <c r="F25" s="35">
-        <v>663.41089199999999</v>
+        <v>672.96912599999996</v>
       </c>
       <c r="G25" s="31">
         <v>1</v>
@@ -2538,13 +2527,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="36">
-        <v>7.2099880000000001</v>
+        <v>7.3526280000000002</v>
       </c>
       <c r="K25" s="33">
-        <v>45.021825999999997</v>
+        <v>44.211216999999998</v>
       </c>
       <c r="L25" s="34">
-        <v>52.231814</v>
+        <v>51.563845000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2555,16 +2544,16 @@
         <v>59</v>
       </c>
       <c r="C26" s="35">
-        <v>3470.39</v>
+        <v>3535.6030000000001</v>
       </c>
       <c r="D26" s="31">
-        <v>1501.533641</v>
+        <v>1552.5186329999999</v>
       </c>
       <c r="E26" s="32">
-        <v>1968.8563590000001</v>
+        <v>1983.0843669999999</v>
       </c>
       <c r="F26" s="35">
-        <v>641.448936</v>
+        <v>662.92831999999999</v>
       </c>
       <c r="G26" s="31">
         <v>1</v>
@@ -2576,13 +2565,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="36">
-        <v>7.260764</v>
+        <v>7.2893420000000004</v>
       </c>
       <c r="K26" s="33">
-        <v>67.651576000000006</v>
+        <v>66.141003999999995</v>
       </c>
       <c r="L26" s="34">
-        <v>74.91234</v>
+        <v>73.430346</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2593,34 +2582,34 @@
         <v>61</v>
       </c>
       <c r="C27" s="35">
-        <v>128691.692</v>
+        <v>132059.76699999999</v>
       </c>
       <c r="D27" s="31">
-        <v>29801.135116000001</v>
+        <v>31246.661469999999</v>
       </c>
       <c r="E27" s="32">
-        <v>98890.556884000005</v>
+        <v>100813.10553</v>
       </c>
       <c r="F27" s="35">
-        <v>2018.8386390000001</v>
+        <v>2114.384775</v>
       </c>
       <c r="G27" s="31">
         <v>4</v>
       </c>
       <c r="H27" s="31">
-        <v>5820.1506479999998</v>
+        <v>6102.5222960000001</v>
       </c>
       <c r="I27" s="32">
         <v>1</v>
       </c>
       <c r="J27" s="36">
-        <v>5.5188670000000002</v>
+        <v>5.5969199999999999</v>
       </c>
       <c r="K27" s="33">
-        <v>68.505990999999995</v>
+        <v>67.682981999999996</v>
       </c>
       <c r="L27" s="34">
-        <v>74.024856999999997</v>
+        <v>73.279903000000004</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2631,34 +2620,34 @@
         <v>63</v>
       </c>
       <c r="C28" s="35">
-        <v>55339.002999999997</v>
+        <v>56432.944000000003</v>
       </c>
       <c r="D28" s="31">
-        <v>16336.073686</v>
+        <v>16957.535343</v>
       </c>
       <c r="E28" s="32">
-        <v>39002.929314000001</v>
+        <v>39475.408657</v>
       </c>
       <c r="F28" s="35">
-        <v>1643.863613</v>
+        <v>1703.7132389999999</v>
       </c>
       <c r="G28" s="31">
         <v>4</v>
       </c>
       <c r="H28" s="31">
-        <v>6523.1845620000004</v>
+        <v>6762.0998120000004</v>
       </c>
       <c r="I28" s="32">
         <v>2</v>
       </c>
       <c r="J28" s="36">
-        <v>4.884862</v>
+        <v>4.9273749999999996</v>
       </c>
       <c r="K28" s="33">
-        <v>62.789071999999997</v>
+        <v>61.191730999999997</v>
       </c>
       <c r="L28" s="34">
-        <v>67.673934000000003</v>
+        <v>66.119106000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2669,34 +2658,34 @@
         <v>65</v>
       </c>
       <c r="C29" s="35">
-        <v>31195.932000000001</v>
+        <v>31964.955999999998</v>
       </c>
       <c r="D29" s="31">
-        <v>12651.822182</v>
+        <v>13179.471008</v>
       </c>
       <c r="E29" s="32">
-        <v>18544.109818000001</v>
+        <v>18785.484992000002</v>
       </c>
       <c r="F29" s="35">
-        <v>952.24744899999996</v>
+        <v>995.64275399999997</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
       </c>
       <c r="H29" s="31">
-        <v>4034.9614069999998</v>
+        <v>4213.6751430000004</v>
       </c>
       <c r="I29" s="32">
         <v>1</v>
       </c>
       <c r="J29" s="36">
-        <v>5.8416829999999997</v>
+        <v>5.9387379999999999</v>
       </c>
       <c r="K29" s="33">
-        <v>69.312061</v>
+        <v>68.465670000000003</v>
       </c>
       <c r="L29" s="34">
-        <v>75.153744000000003</v>
+        <v>74.404408000000004</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2707,13 +2696,13 @@
         <v>67</v>
       </c>
       <c r="C30" s="35">
-        <v>1273.588</v>
+        <v>1271.1690000000001</v>
       </c>
       <c r="D30" s="31">
-        <v>520.47720800000002</v>
+        <v>520.46743500000002</v>
       </c>
       <c r="E30" s="32">
-        <v>753.11079199999995</v>
+        <v>750.70156499999996</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>17</v>
@@ -2728,13 +2717,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="36">
-        <v>17.991365999999999</v>
+        <v>18.874855</v>
       </c>
       <c r="K30" s="33">
-        <v>21.025165000000001</v>
+        <v>20.667363000000002</v>
       </c>
       <c r="L30" s="34">
-        <v>39.016531000000001</v>
+        <v>39.542217999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2745,13 +2734,13 @@
         <v>69</v>
       </c>
       <c r="C31" s="35">
-        <v>13954.472</v>
+        <v>14256.566999999999</v>
       </c>
       <c r="D31" s="31">
-        <v>2496.7341299999998</v>
+        <v>2577.729879</v>
       </c>
       <c r="E31" s="32">
-        <v>11457.737870000001</v>
+        <v>11678.837121</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>17</v>
@@ -2760,19 +2749,19 @@
         <v>17</v>
       </c>
       <c r="H31" s="31">
-        <v>1247.009462</v>
+        <v>1288.3949130000001</v>
       </c>
       <c r="I31" s="32">
         <v>1</v>
       </c>
       <c r="J31" s="36">
-        <v>6.5390240000000004</v>
+        <v>6.6869069999999997</v>
       </c>
       <c r="K31" s="33">
-        <v>64.556773000000007</v>
+        <v>63.632812999999999</v>
       </c>
       <c r="L31" s="34">
-        <v>71.095797000000005</v>
+        <v>70.319720000000004</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2783,13 +2772,13 @@
         <v>71</v>
       </c>
       <c r="C32" s="35">
-        <v>127.95099999999999</v>
+        <v>130.41800000000001</v>
       </c>
       <c r="D32" s="31">
-        <v>75.260778000000002</v>
+        <v>77.262231999999997</v>
       </c>
       <c r="E32" s="32">
-        <v>52.690221999999999</v>
+        <v>53.155768000000002</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>17</v>
@@ -2804,13 +2793,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="36">
-        <v>11.652554</v>
+        <v>11.950635999999999</v>
       </c>
       <c r="K32" s="33">
-        <v>28.157333999999999</v>
+        <v>27.901616000000001</v>
       </c>
       <c r="L32" s="34">
-        <v>39.809888000000001</v>
+        <v>39.852252</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2821,34 +2810,34 @@
         <v>73</v>
       </c>
       <c r="C33" s="35">
-        <v>18358.615000000002</v>
+        <v>19009.151000000002</v>
       </c>
       <c r="D33" s="31">
-        <v>8797.4483080000009</v>
+        <v>9223.0499739999996</v>
       </c>
       <c r="E33" s="32">
-        <v>9561.1666920000007</v>
+        <v>9786.1010260000003</v>
       </c>
       <c r="F33" s="35">
-        <v>1944.5852709999999</v>
+        <v>2040.3643649999999</v>
       </c>
       <c r="G33" s="31">
         <v>3</v>
       </c>
       <c r="H33" s="31">
-        <v>3898.4795049999998</v>
+        <v>4093.2661819999998</v>
       </c>
       <c r="I33" s="32">
         <v>2</v>
       </c>
       <c r="J33" s="36">
-        <v>5.052708</v>
+        <v>5.100079</v>
       </c>
       <c r="K33" s="33">
-        <v>91.965609999999998</v>
+        <v>91.691536999999997</v>
       </c>
       <c r="L33" s="34">
-        <v>97.018317999999994</v>
+        <v>96.791616000000005</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2859,16 +2848,16 @@
         <v>75</v>
       </c>
       <c r="C34" s="53">
-        <v>11483.374</v>
+        <v>11943.407999999999</v>
       </c>
       <c r="D34" s="54">
-        <v>2433.9011190000001</v>
+        <v>2574.9987649999998</v>
       </c>
       <c r="E34" s="55">
-        <v>9049.4728809999997</v>
+        <v>9368.4092349999992</v>
       </c>
       <c r="F34" s="53">
-        <v>359.515085</v>
+        <v>380.85501199999999</v>
       </c>
       <c r="G34" s="54">
         <v>1</v>
@@ -2880,13 +2869,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="56">
-        <v>5.0884200000000002</v>
+        <v>5.1500069999999996</v>
       </c>
       <c r="K34" s="57">
-        <v>69.626643999999999</v>
+        <v>66.994131999999993</v>
       </c>
       <c r="L34" s="58">
-        <v>74.715064999999996</v>
+        <v>72.144138999999996</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2897,34 +2886,34 @@
         <v>77</v>
       </c>
       <c r="C35" s="35">
-        <v>50042.790999999997</v>
+        <v>50448.962</v>
       </c>
       <c r="D35" s="31">
-        <v>18186.551104999999</v>
+        <v>18541.002514</v>
       </c>
       <c r="E35" s="32">
-        <v>31856.239894999999</v>
+        <v>31907.959486</v>
       </c>
       <c r="F35" s="35">
-        <v>2378.3404679999999</v>
+        <v>2410.625595</v>
       </c>
       <c r="G35" s="31">
         <v>5</v>
       </c>
       <c r="H35" s="31">
-        <v>7920.8167700000004</v>
+        <v>8054.7569649999996</v>
       </c>
       <c r="I35" s="32">
         <v>2</v>
       </c>
       <c r="J35" s="36">
-        <v>5.7209219999999998</v>
+        <v>5.872128</v>
       </c>
       <c r="K35" s="33">
-        <v>72.408659999999998</v>
+        <v>71.978589999999997</v>
       </c>
       <c r="L35" s="34">
-        <v>78.129581000000002</v>
+        <v>77.850717000000003</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2935,34 +2924,34 @@
         <v>79</v>
       </c>
       <c r="C36" s="35">
-        <v>66617.606</v>
+        <v>68560.157000000007</v>
       </c>
       <c r="D36" s="31">
-        <v>24920.980229000001</v>
+        <v>26146.101473999999</v>
       </c>
       <c r="E36" s="32">
-        <v>41696.625770999999</v>
+        <v>42414.055525999996</v>
       </c>
       <c r="F36" s="35">
-        <v>2782.4947790000001</v>
+        <v>2906.3858169999999</v>
       </c>
       <c r="G36" s="31">
         <v>5</v>
       </c>
       <c r="H36" s="31">
-        <v>8825.1676559999996</v>
+        <v>9261.8527400000003</v>
       </c>
       <c r="I36" s="32">
         <v>2</v>
       </c>
       <c r="J36" s="36">
-        <v>5.6113499999999998</v>
+        <v>5.5954980000000001</v>
       </c>
       <c r="K36" s="33">
-        <v>78.778541000000004</v>
+        <v>78.164242999999999</v>
       </c>
       <c r="L36" s="34">
-        <v>84.389891000000006</v>
+        <v>83.759741000000005</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2973,13 +2962,13 @@
         <v>81</v>
       </c>
       <c r="C37" s="38">
-        <v>48656.601000000002</v>
+        <v>50015.091999999997</v>
       </c>
       <c r="D37" s="39">
-        <v>13025.858654</v>
+        <v>13698.633548</v>
       </c>
       <c r="E37" s="40">
-        <v>35630.742345999999</v>
+        <v>36316.458451999999</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>17</v>
@@ -2988,19 +2977,19 @@
         <v>17</v>
       </c>
       <c r="H37" s="39">
-        <v>3611.164914</v>
+        <v>3791.4742500000002</v>
       </c>
       <c r="I37" s="40">
         <v>1</v>
       </c>
       <c r="J37" s="41">
-        <v>3.9891179999999999</v>
+        <v>4.0328569999999999</v>
       </c>
       <c r="K37" s="42">
-        <v>81.500558999999996</v>
+        <v>80.236405000000005</v>
       </c>
       <c r="L37" s="43">
-        <v>85.489677</v>
+        <v>84.269261999999998</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3009,34 +2998,34 @@
         <v>82</v>
       </c>
       <c r="C38" s="46">
-        <v>431215.34600000002</v>
+        <v>441663.54399999999</v>
       </c>
       <c r="D38" s="47">
-        <v>131909.675338</v>
+        <v>137479.20138499999</v>
       </c>
       <c r="E38" s="48">
-        <v>299305.67066200002</v>
+        <v>304184.34261499997</v>
       </c>
       <c r="F38" s="46">
-        <v>13384.745133</v>
+        <v>13887.869003</v>
       </c>
       <c r="G38" s="47">
         <v>26</v>
       </c>
       <c r="H38" s="47">
-        <v>41880.934924000001</v>
+        <v>43568.042302000002</v>
       </c>
       <c r="I38" s="48">
         <v>12</v>
       </c>
       <c r="J38" s="49">
-        <v>7.1469909999999999</v>
+        <v>7.2875199999999998</v>
       </c>
       <c r="K38" s="50">
-        <v>63.260404000000001</v>
+        <v>62.322572000000001</v>
       </c>
       <c r="L38" s="51">
-        <v>70.407394999999994</v>
+        <v>69.610091999999995</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3047,34 +3036,34 @@
         <v>84</v>
       </c>
       <c r="C39" s="74">
-        <v>46164.218999999997</v>
+        <v>46814.307999999997</v>
       </c>
       <c r="D39" s="75">
-        <v>34746.884357000003</v>
+        <v>35460.902024000003</v>
       </c>
       <c r="E39" s="76">
-        <v>11417.334643</v>
+        <v>11353.405976</v>
       </c>
       <c r="F39" s="74">
-        <v>3558.4844450000001</v>
+        <v>3632.6159360000001</v>
       </c>
       <c r="G39" s="75">
         <v>7</v>
       </c>
       <c r="H39" s="75">
-        <v>2965.0997160000002</v>
+        <v>3020.5939709999998</v>
       </c>
       <c r="I39" s="76">
         <v>1</v>
       </c>
       <c r="J39" s="77">
-        <v>10.124601999999999</v>
+        <v>10.433247</v>
       </c>
       <c r="K39" s="78">
-        <v>48.646402000000002</v>
+        <v>48.073532</v>
       </c>
       <c r="L39" s="79">
-        <v>58.771003</v>
+        <v>58.506779000000002</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3085,34 +3074,34 @@
         <v>86</v>
       </c>
       <c r="C40" s="35">
-        <v>114535.772</v>
+        <v>116538.258</v>
       </c>
       <c r="D40" s="31">
-        <v>49364.917732000002</v>
+        <v>50412.119645999999</v>
       </c>
       <c r="E40" s="32">
-        <v>65170.854268000003</v>
+        <v>66126.138353999995</v>
       </c>
       <c r="F40" s="35">
-        <v>5806.2189170000001</v>
+        <v>5919.4274059999998</v>
       </c>
       <c r="G40" s="31">
         <v>11</v>
       </c>
       <c r="H40" s="31">
-        <v>29420.452926000002</v>
+        <v>30057.875787000001</v>
       </c>
       <c r="I40" s="32">
         <v>2</v>
       </c>
       <c r="J40" s="36">
-        <v>7.9394030000000004</v>
+        <v>8.1354310000000005</v>
       </c>
       <c r="K40" s="33">
-        <v>51.817265999999996</v>
+        <v>50.874766000000001</v>
       </c>
       <c r="L40" s="34">
-        <v>59.756669000000002</v>
+        <v>59.010196999999998</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3123,34 +3112,34 @@
         <v>88</v>
       </c>
       <c r="C41" s="53">
-        <v>7305.6589999999997</v>
+        <v>7381.0230000000001</v>
       </c>
       <c r="D41" s="54">
-        <v>5961.856084</v>
+        <v>6045.574509</v>
       </c>
       <c r="E41" s="55">
-        <v>1343.8029160000001</v>
+        <v>1335.4484910000001</v>
       </c>
       <c r="F41" s="53">
-        <v>910.41322400000001</v>
+        <v>922.65119300000003</v>
       </c>
       <c r="G41" s="54">
         <v>1</v>
       </c>
       <c r="H41" s="54">
-        <v>2296.65542</v>
+        <v>2335.5634439999999</v>
       </c>
       <c r="I41" s="55">
         <v>2</v>
       </c>
       <c r="J41" s="56">
-        <v>7.2634210000000001</v>
+        <v>7.4284020000000002</v>
       </c>
       <c r="K41" s="57">
-        <v>41.633243999999998</v>
+        <v>40.569958999999997</v>
       </c>
       <c r="L41" s="58">
-        <v>48.896664000000001</v>
+        <v>47.998361000000003</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3161,13 +3150,13 @@
         <v>90</v>
       </c>
       <c r="C42" s="53">
-        <v>5022.442</v>
+        <v>5169.3950000000004</v>
       </c>
       <c r="D42" s="54">
-        <v>2897.8988100000001</v>
+        <v>3021.9249289999998</v>
       </c>
       <c r="E42" s="55">
-        <v>2124.5431899999999</v>
+        <v>2147.4700710000002</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>17</v>
@@ -3176,19 +3165,19 @@
         <v>17</v>
       </c>
       <c r="H42" s="54">
-        <v>1452.1643340000001</v>
+        <v>1517.36808</v>
       </c>
       <c r="I42" s="55">
         <v>1</v>
       </c>
       <c r="J42" s="56">
-        <v>5.9821650000000002</v>
+        <v>5.9719499999999996</v>
       </c>
       <c r="K42" s="57">
-        <v>80.069280000000006</v>
+        <v>79.006461999999999</v>
       </c>
       <c r="L42" s="58">
-        <v>86.051445000000001</v>
+        <v>84.978412000000006</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3199,34 +3188,34 @@
         <v>92</v>
       </c>
       <c r="C43" s="35">
-        <v>37712.504999999997</v>
+        <v>38081.173000000003</v>
       </c>
       <c r="D43" s="31">
-        <v>24558.760381</v>
+        <v>24997.624392000002</v>
       </c>
       <c r="E43" s="32">
-        <v>13153.744618999999</v>
+        <v>13083.548607999999</v>
       </c>
       <c r="F43" s="35">
-        <v>3383.9706160000001</v>
+        <v>3443.5323509999998</v>
       </c>
       <c r="G43" s="31">
         <v>6</v>
       </c>
       <c r="H43" s="31">
-        <v>9355.4961899999998</v>
+        <v>9510.571629</v>
       </c>
       <c r="I43" s="32">
         <v>5</v>
       </c>
       <c r="J43" s="36">
-        <v>11.832261000000001</v>
+        <v>12.28876</v>
       </c>
       <c r="K43" s="33">
-        <v>39.364314</v>
+        <v>38.703778999999997</v>
       </c>
       <c r="L43" s="34">
-        <v>51.196573999999998</v>
+        <v>50.992539000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3237,34 +3226,34 @@
         <v>94</v>
       </c>
       <c r="C44" s="60">
-        <v>12200.431</v>
+        <v>12277.109</v>
       </c>
       <c r="D44" s="61">
-        <v>8606.6720449999993</v>
+        <v>8702.0148590000008</v>
       </c>
       <c r="E44" s="62">
-        <v>3593.7589549999998</v>
+        <v>3575.094141</v>
       </c>
       <c r="F44" s="60">
-        <v>648.58090400000003</v>
+        <v>654.67496300000005</v>
       </c>
       <c r="G44" s="61">
         <v>1</v>
       </c>
       <c r="H44" s="61">
-        <v>2468.5034780000001</v>
+        <v>2498.7796309999999</v>
       </c>
       <c r="I44" s="62">
         <v>1</v>
       </c>
       <c r="J44" s="63">
-        <v>13.804885000000001</v>
+        <v>14.345027999999999</v>
       </c>
       <c r="K44" s="64">
-        <v>36.800204999999998</v>
+        <v>36.186118</v>
       </c>
       <c r="L44" s="65">
-        <v>50.605089999999997</v>
+        <v>50.531146</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3273,34 +3262,34 @@
         <v>95</v>
       </c>
       <c r="C45" s="46">
-        <v>222941.02799999999</v>
+        <v>226261.266</v>
       </c>
       <c r="D45" s="47">
-        <v>126136.98940799999</v>
+        <v>128640.160359</v>
       </c>
       <c r="E45" s="48">
-        <v>96804.038591999997</v>
+        <v>97621.105641000002</v>
       </c>
       <c r="F45" s="46">
-        <v>14307.668107</v>
+        <v>14572.901849</v>
       </c>
       <c r="G45" s="47">
         <v>26</v>
       </c>
       <c r="H45" s="47">
-        <v>47958.372064000003</v>
+        <v>48940.752542000002</v>
       </c>
       <c r="I45" s="48">
         <v>12</v>
       </c>
       <c r="J45" s="49">
-        <v>9.491123</v>
+        <v>9.7671360000000007</v>
       </c>
       <c r="K45" s="50">
-        <v>49.721784999999997</v>
+        <v>48.902436000000002</v>
       </c>
       <c r="L45" s="51">
-        <v>59.212907999999999</v>
+        <v>58.669572000000002</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3311,34 +3300,34 @@
         <v>97</v>
       </c>
       <c r="C46" s="67">
-        <v>14111.034</v>
+        <v>14462.724</v>
       </c>
       <c r="D46" s="68">
-        <v>7069.6280340000003</v>
+        <v>7328.1176240000004</v>
       </c>
       <c r="E46" s="69">
-        <v>7041.4059660000003</v>
+        <v>7134.6063759999997</v>
       </c>
       <c r="F46" s="67">
-        <v>1627.0441780000001</v>
+        <v>1675.5565200000001</v>
       </c>
       <c r="G46" s="68">
         <v>3</v>
       </c>
       <c r="H46" s="68">
-        <v>1347.6594250000001</v>
+        <v>1412.7309499999999</v>
       </c>
       <c r="I46" s="69">
         <v>1</v>
       </c>
       <c r="J46" s="70">
-        <v>5.6066479999999999</v>
+        <v>5.6356359999999999</v>
       </c>
       <c r="K46" s="71">
-        <v>75.961124999999996</v>
+        <v>75.100245000000001</v>
       </c>
       <c r="L46" s="72">
-        <v>81.567773000000003</v>
+        <v>80.735881000000006</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3349,13 +3338,13 @@
         <v>99</v>
       </c>
       <c r="C47" s="35">
-        <v>23025.776000000002</v>
+        <v>23548.780999999999</v>
       </c>
       <c r="D47" s="31">
-        <v>7487.9823550000001</v>
+        <v>7810.1887059999999</v>
       </c>
       <c r="E47" s="32">
-        <v>15537.793645</v>
+        <v>15738.592294</v>
       </c>
       <c r="F47" s="35" t="s">
         <v>17</v>
@@ -3364,19 +3353,19 @@
         <v>17</v>
       </c>
       <c r="H47" s="31">
-        <v>4390.9401239999997</v>
+        <v>4582.8152829999999</v>
       </c>
       <c r="I47" s="32">
         <v>2</v>
       </c>
       <c r="J47" s="36">
-        <v>4.7668559999999998</v>
+        <v>4.774025</v>
       </c>
       <c r="K47" s="33">
-        <v>77.123985000000005</v>
+        <v>75.256328999999994</v>
       </c>
       <c r="L47" s="34">
-        <v>81.890840999999995</v>
+        <v>80.030354000000003</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3387,13 +3376,13 @@
         <v>101</v>
       </c>
       <c r="C48" s="53">
-        <v>522.33000000000004</v>
+        <v>524.87699999999995</v>
       </c>
       <c r="D48" s="54">
-        <v>355.09038099999998</v>
+        <v>359.07885299999998</v>
       </c>
       <c r="E48" s="55">
-        <v>167.239619</v>
+        <v>165.798147</v>
       </c>
       <c r="F48" s="53" t="s">
         <v>17</v>
@@ -3408,13 +3397,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="56">
-        <v>9.8144019999999994</v>
+        <v>10.148514</v>
       </c>
       <c r="K48" s="57">
-        <v>39.330421000000001</v>
+        <v>37.795710999999997</v>
       </c>
       <c r="L48" s="58">
-        <v>49.144823000000002</v>
+        <v>47.944225000000003</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3425,34 +3414,34 @@
         <v>103</v>
       </c>
       <c r="C49" s="35">
-        <v>31165.653999999999</v>
+        <v>31934.23</v>
       </c>
       <c r="D49" s="31">
-        <v>16564.233444000001</v>
+        <v>17130.798341000002</v>
       </c>
       <c r="E49" s="32">
-        <v>14601.420555999999</v>
+        <v>14803.431659</v>
       </c>
       <c r="F49" s="35">
-        <v>667.824566</v>
+        <v>684.14140299999997</v>
       </c>
       <c r="G49" s="31">
         <v>1</v>
       </c>
       <c r="H49" s="31">
-        <v>6288.2978730000004</v>
+        <v>6487.1451770000003</v>
       </c>
       <c r="I49" s="32">
         <v>1</v>
       </c>
       <c r="J49" s="36">
-        <v>4.5734700000000004</v>
+        <v>4.6160420000000002</v>
       </c>
       <c r="K49" s="33">
-        <v>73.504029000000003</v>
+        <v>72.313519999999997</v>
       </c>
       <c r="L49" s="34">
-        <v>78.077499000000003</v>
+        <v>76.929562000000004</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3463,16 +3452,16 @@
         <v>105</v>
       </c>
       <c r="C50" s="35">
-        <v>2697.846</v>
+        <v>2759.9879999999998</v>
       </c>
       <c r="D50" s="31">
-        <v>1739.3552729999999</v>
+        <v>1796.20019</v>
       </c>
       <c r="E50" s="32">
-        <v>958.49072699999999</v>
+        <v>963.78781000000004</v>
       </c>
       <c r="F50" s="35">
-        <v>520.42780100000004</v>
+        <v>532.66393600000004</v>
       </c>
       <c r="G50" s="31">
         <v>1</v>
@@ -3484,13 +3473,13 @@
         <v>17</v>
       </c>
       <c r="J50" s="36">
-        <v>5.2903500000000001</v>
+        <v>5.4318780000000002</v>
       </c>
       <c r="K50" s="33">
-        <v>72.357196000000002</v>
+        <v>71.016985000000005</v>
       </c>
       <c r="L50" s="34">
-        <v>77.647544999999994</v>
+        <v>76.448863000000003</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3501,34 +3490,34 @@
         <v>107</v>
       </c>
       <c r="C51" s="24">
-        <v>33787.913999999997</v>
+        <v>34427.413999999997</v>
       </c>
       <c r="D51" s="25">
-        <v>20015.284495</v>
+        <v>20606.184376000001</v>
       </c>
       <c r="E51" s="26">
-        <v>13772.629505000001</v>
+        <v>13821.229624</v>
       </c>
       <c r="F51" s="24">
-        <v>754.85340099999996</v>
+        <v>782.78308400000003</v>
       </c>
       <c r="G51" s="25">
         <v>1</v>
       </c>
       <c r="H51" s="25">
-        <v>7764.2631520000004</v>
+        <v>8002.5941800000001</v>
       </c>
       <c r="I51" s="26">
         <v>3</v>
       </c>
       <c r="J51" s="27">
-        <v>6.0340030000000002</v>
+        <v>6.1321870000000001</v>
       </c>
       <c r="K51" s="28">
-        <v>60.108583000000003</v>
+        <v>59.229441999999999</v>
       </c>
       <c r="L51" s="29">
-        <v>66.142585999999994</v>
+        <v>65.361628999999994</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3539,13 +3528,13 @@
         <v>109</v>
       </c>
       <c r="C52" s="35">
-        <v>14405.468000000001</v>
+        <v>14754.786</v>
       </c>
       <c r="D52" s="31">
-        <v>5486.3224879999998</v>
+        <v>5683.1009240000003</v>
       </c>
       <c r="E52" s="32">
-        <v>8919.1455119999991</v>
+        <v>9071.6850759999998</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>17</v>
@@ -3554,19 +3543,19 @@
         <v>17</v>
       </c>
       <c r="H52" s="31">
-        <v>2048.1403970000001</v>
+        <v>2111.1829680000001</v>
       </c>
       <c r="I52" s="32">
         <v>1</v>
       </c>
       <c r="J52" s="36">
-        <v>6.2207610000000004</v>
+        <v>6.2093569999999998</v>
       </c>
       <c r="K52" s="33">
-        <v>74.558811000000006</v>
+        <v>73.505431000000002</v>
       </c>
       <c r="L52" s="34">
-        <v>80.779572000000002</v>
+        <v>79.714787999999999</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3577,16 +3566,16 @@
         <v>111</v>
       </c>
       <c r="C53" s="35">
-        <v>2153.3389999999999</v>
+        <v>2201.3519999999999</v>
       </c>
       <c r="D53" s="31">
-        <v>979.03710999999998</v>
+        <v>1010.266473</v>
       </c>
       <c r="E53" s="32">
-        <v>1174.30189</v>
+        <v>1191.085527</v>
       </c>
       <c r="F53" s="35">
-        <v>667.263373</v>
+        <v>689.27570800000001</v>
       </c>
       <c r="G53" s="31">
         <v>1</v>
@@ -3598,13 +3587,13 @@
         <v>17</v>
       </c>
       <c r="J53" s="36">
-        <v>5.4547980000000003</v>
+        <v>5.5014690000000002</v>
       </c>
       <c r="K53" s="33">
-        <v>68.110934999999998</v>
+        <v>66.846423999999999</v>
       </c>
       <c r="L53" s="34">
-        <v>73.565732999999994</v>
+        <v>72.347892999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3615,13 +3604,13 @@
         <v>113</v>
       </c>
       <c r="C54" s="35">
-        <v>5493.0309999999999</v>
+        <v>5612.817</v>
       </c>
       <c r="D54" s="31">
-        <v>2942.451916</v>
+        <v>3035.2430490000002</v>
       </c>
       <c r="E54" s="32">
-        <v>2550.579084</v>
+        <v>2577.5739509999999</v>
       </c>
       <c r="F54" s="35" t="s">
         <v>17</v>
@@ -3630,19 +3619,19 @@
         <v>17</v>
       </c>
       <c r="H54" s="31">
-        <v>1677.0595049999999</v>
+        <v>1729.472953</v>
       </c>
       <c r="I54" s="32">
         <v>1</v>
       </c>
       <c r="J54" s="36">
-        <v>5.7780290000000001</v>
+        <v>5.7814839999999998</v>
       </c>
       <c r="K54" s="33">
-        <v>70.509111000000004</v>
+        <v>69.149483000000004</v>
       </c>
       <c r="L54" s="34">
-        <v>76.287139999999994</v>
+        <v>74.930966999999995</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3653,34 +3642,34 @@
         <v>115</v>
       </c>
       <c r="C55" s="35">
-        <v>23769.127</v>
+        <v>24478.595000000001</v>
       </c>
       <c r="D55" s="31">
-        <v>10978.72207</v>
+        <v>11488.783777000001</v>
       </c>
       <c r="E55" s="32">
-        <v>12790.404930000001</v>
+        <v>12989.811223000001</v>
       </c>
       <c r="F55" s="35">
-        <v>477.41504500000002</v>
+        <v>500.27649000000002</v>
       </c>
       <c r="G55" s="31">
         <v>1</v>
       </c>
       <c r="H55" s="31">
-        <v>3143.0957579999999</v>
+        <v>3274.2722079999999</v>
       </c>
       <c r="I55" s="32">
         <v>1</v>
       </c>
       <c r="J55" s="36">
-        <v>4.7039470000000003</v>
+        <v>4.6315410000000004</v>
       </c>
       <c r="K55" s="33">
-        <v>90.858861000000005</v>
+        <v>89.642437000000001</v>
       </c>
       <c r="L55" s="34">
-        <v>95.562808000000004</v>
+        <v>94.273978</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3691,34 +3680,34 @@
         <v>117</v>
       </c>
       <c r="C56" s="35">
-        <v>26159.866999999998</v>
+        <v>27032.412</v>
       </c>
       <c r="D56" s="31">
-        <v>4461.3037180000001</v>
+        <v>4658.2252360000002</v>
       </c>
       <c r="E56" s="32">
-        <v>21698.563281999999</v>
+        <v>22374.186763999998</v>
       </c>
       <c r="F56" s="35">
-        <v>554.33292700000004</v>
+        <v>580.04458699999998</v>
       </c>
       <c r="G56" s="31">
         <v>1</v>
       </c>
       <c r="H56" s="31">
-        <v>1393.970253</v>
+        <v>1444.1808269999999</v>
       </c>
       <c r="I56" s="32">
         <v>1</v>
       </c>
       <c r="J56" s="36">
-        <v>5.0948820000000001</v>
+        <v>5.1066240000000001</v>
       </c>
       <c r="K56" s="33">
-        <v>93.069220000000001</v>
+        <v>91.725958000000006</v>
       </c>
       <c r="L56" s="34">
-        <v>98.164101000000002</v>
+        <v>96.832582000000002</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3729,34 +3718,34 @@
         <v>119</v>
       </c>
       <c r="C57" s="35">
-        <v>227882.94500000001</v>
+        <v>232679.478</v>
       </c>
       <c r="D57" s="31">
-        <v>123701.699034</v>
+        <v>128043.516743</v>
       </c>
       <c r="E57" s="32">
-        <v>104181.245966</v>
+        <v>104635.961257</v>
       </c>
       <c r="F57" s="35">
-        <v>20904.366506999999</v>
+        <v>20606.405505999999</v>
       </c>
       <c r="G57" s="31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57" s="31">
-        <v>45152.423941000001</v>
+        <v>47739.196028999999</v>
       </c>
       <c r="I57" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J57" s="36">
-        <v>5.4581569999999999</v>
+        <v>5.4501249999999999</v>
       </c>
       <c r="K57" s="33">
-        <v>74.788250000000005</v>
+        <v>73.320852000000002</v>
       </c>
       <c r="L57" s="34">
-        <v>80.246407000000005</v>
+        <v>78.770977999999999</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3767,34 +3756,34 @@
         <v>121</v>
       </c>
       <c r="C58" s="35">
-        <v>18077.573</v>
+        <v>18501.984</v>
       </c>
       <c r="D58" s="31">
-        <v>8962.6799179999998</v>
+        <v>9265.7935870000001</v>
       </c>
       <c r="E58" s="32">
-        <v>9114.8930820000005</v>
+        <v>9236.1904130000003</v>
       </c>
       <c r="F58" s="35">
-        <v>776.984554</v>
+        <v>801.97921399999996</v>
       </c>
       <c r="G58" s="31">
         <v>2</v>
       </c>
       <c r="H58" s="31">
-        <v>3331.961843</v>
+        <v>3431.673479</v>
       </c>
       <c r="I58" s="32">
         <v>1</v>
       </c>
       <c r="J58" s="36">
-        <v>6.213902</v>
+        <v>6.2160580000000003</v>
       </c>
       <c r="K58" s="33">
-        <v>66.856335000000001</v>
+        <v>65.605496000000002</v>
       </c>
       <c r="L58" s="34">
-        <v>73.070238000000003</v>
+        <v>71.821555000000004</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3805,13 +3794,13 @@
         <v>123</v>
       </c>
       <c r="C59" s="35">
-        <v>8460.5120000000006</v>
+        <v>8642.0220000000008</v>
       </c>
       <c r="D59" s="31">
-        <v>3748.0068160000001</v>
+        <v>3869.8110310000002</v>
       </c>
       <c r="E59" s="32">
-        <v>4712.5051839999996</v>
+        <v>4772.2109689999997</v>
       </c>
       <c r="F59" s="35" t="s">
         <v>17</v>
@@ -3820,19 +3809,19 @@
         <v>17</v>
       </c>
       <c r="H59" s="31">
-        <v>1296.842913</v>
+        <v>1337.5068309999999</v>
       </c>
       <c r="I59" s="32">
         <v>1</v>
       </c>
       <c r="J59" s="36">
-        <v>5.5040190000000004</v>
+        <v>5.5272079999999999</v>
       </c>
       <c r="K59" s="33">
-        <v>66.135692000000006</v>
+        <v>64.921802</v>
       </c>
       <c r="L59" s="34">
-        <v>71.639711000000005</v>
+        <v>70.449010000000001</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3843,13 +3832,13 @@
         <v>125</v>
       </c>
       <c r="C60" s="38">
-        <v>9304.3379999999997</v>
+        <v>9515.2360000000008</v>
       </c>
       <c r="D60" s="39">
-        <v>4139.4999760000001</v>
+        <v>4287.9459509999997</v>
       </c>
       <c r="E60" s="40">
-        <v>5164.8380239999997</v>
+        <v>5227.2900490000002</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>17</v>
@@ -3858,19 +3847,19 @@
         <v>17</v>
       </c>
       <c r="H60" s="39">
-        <v>2050.315482</v>
+        <v>2112.6059019999998</v>
       </c>
       <c r="I60" s="40">
         <v>1</v>
       </c>
       <c r="J60" s="41">
-        <v>5.5550610000000002</v>
+        <v>5.612031</v>
       </c>
       <c r="K60" s="42">
-        <v>70.026200000000003</v>
+        <v>69.027845999999997</v>
       </c>
       <c r="L60" s="43">
-        <v>75.581260999999998</v>
+        <v>74.639876999999998</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3879,34 +3868,34 @@
         <v>126</v>
       </c>
       <c r="C61" s="46">
-        <v>441016.75400000002</v>
+        <v>451076.696</v>
       </c>
       <c r="D61" s="47">
-        <v>218631.297028</v>
+        <v>226373.25486300001</v>
       </c>
       <c r="E61" s="48">
-        <v>222385.45697200001</v>
+        <v>224703.44113699999</v>
       </c>
       <c r="F61" s="46">
-        <v>26950.512352000002</v>
+        <v>26853.12645</v>
       </c>
       <c r="G61" s="47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" s="47">
-        <v>79884.970663999993</v>
+        <v>83665.376789000002</v>
       </c>
       <c r="I61" s="48">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J61" s="49">
-        <v>5.7379519999999999</v>
+        <v>5.7849449999999996</v>
       </c>
       <c r="K61" s="50">
-        <v>71.553250000000006</v>
+        <v>70.297196999999997</v>
       </c>
       <c r="L61" s="51">
-        <v>77.291202999999996</v>
+        <v>76.082143000000002</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3915,34 +3904,34 @@
         <v>127</v>
       </c>
       <c r="C62" s="83">
-        <v>1478994.6089999999</v>
+        <v>1513340.0109999999</v>
       </c>
       <c r="D62" s="84">
-        <v>665763.06557800004</v>
+        <v>688529.828522</v>
       </c>
       <c r="E62" s="85">
-        <v>813231.54342200002</v>
+        <v>824810.18247799994</v>
       </c>
       <c r="F62" s="83">
-        <v>84576.880665999997</v>
+        <v>84316.860000999994</v>
       </c>
       <c r="G62" s="84">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H62" s="84">
-        <v>256679.15328699999</v>
+        <v>268350.09963000001</v>
       </c>
       <c r="I62" s="85">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J62" s="86">
-        <v>6.5216070000000004</v>
+        <v>6.6192510000000002</v>
       </c>
       <c r="K62" s="87">
-        <v>67.107676999999995</v>
+        <v>66.064429000000004</v>
       </c>
       <c r="L62" s="88">
-        <v>73.629283999999998</v>
+        <v>72.683679999999995</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3951,34 +3940,34 @@
         <v>128</v>
       </c>
       <c r="C63" s="83">
-        <v>6566110.7960000001</v>
+        <v>6602024.3430000003</v>
       </c>
       <c r="D63" s="84">
-        <v>3931659.9997669999</v>
+        <v>3983365.0263129999</v>
       </c>
       <c r="E63" s="85">
-        <v>2634450.7962329998</v>
+        <v>2618659.316687</v>
       </c>
       <c r="F63" s="83">
-        <v>595765.33312600001</v>
+        <v>597572.04184399999</v>
       </c>
       <c r="G63" s="84">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="H63" s="84">
-        <v>1768667.9189470001</v>
+        <v>1802657.2840430001</v>
       </c>
       <c r="I63" s="85">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="J63" s="86">
-        <v>18.591591000000001</v>
+        <v>19.079882000000001</v>
       </c>
       <c r="K63" s="87">
-        <v>34.185290000000002</v>
+        <v>33.710169</v>
       </c>
       <c r="L63" s="88">
-        <v>52.776881000000003</v>
+        <v>52.790050000000001</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3987,34 +3976,34 @@
         <v>129</v>
       </c>
       <c r="C64" s="91">
-        <v>653952.73300000001</v>
+        <v>658524.26399999997</v>
       </c>
       <c r="D64" s="92">
-        <v>534523.39673599997</v>
+        <v>539825.41029799997</v>
       </c>
       <c r="E64" s="93">
-        <v>119429.336264</v>
+        <v>118698.85370199999</v>
       </c>
       <c r="F64" s="91">
-        <v>69231.270673999999</v>
+        <v>70010.881748</v>
       </c>
       <c r="G64" s="92">
         <v>130</v>
       </c>
       <c r="H64" s="92">
-        <v>248823.09823999999</v>
+        <v>251394.23938700001</v>
       </c>
       <c r="I64" s="93">
         <v>75</v>
       </c>
       <c r="J64" s="94">
-        <v>14.040201</v>
+        <v>14.465797</v>
       </c>
       <c r="K64" s="95">
-        <v>34.609994999999998</v>
+        <v>33.999732999999999</v>
       </c>
       <c r="L64" s="96">
-        <v>48.650196000000001</v>
+        <v>48.465530000000001</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4023,34 +4012,34 @@
         <v>130</v>
       </c>
       <c r="C65" s="98">
-        <v>4365139.6109999996</v>
+        <v>4392496.523</v>
       </c>
       <c r="D65" s="99">
-        <v>2172673.376499</v>
+        <v>2212413.566205</v>
       </c>
       <c r="E65" s="100">
-        <v>2192466.234501</v>
+        <v>2180082.956795</v>
       </c>
       <c r="F65" s="98">
-        <v>320365.75852799998</v>
+        <v>323014.76254500001</v>
       </c>
       <c r="G65" s="99">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H65" s="99">
-        <v>982347.40056800004</v>
+        <v>1007182.946067</v>
       </c>
       <c r="I65" s="100">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J65" s="101">
-        <v>9.9704750000000004</v>
+        <v>10.279234000000001</v>
       </c>
       <c r="K65" s="102">
-        <v>44.441265999999999</v>
+        <v>43.706895000000003</v>
       </c>
       <c r="L65" s="103">
-        <v>54.411741999999997</v>
+        <v>53.986128999999998</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4059,34 +4048,34 @@
         <v>131</v>
       </c>
       <c r="C66" s="105">
-        <v>8045105.4050000003</v>
+        <v>8115364.3540000003</v>
       </c>
       <c r="D66" s="106">
-        <v>4597423.0653449995</v>
+        <v>4671894.8548349999</v>
       </c>
       <c r="E66" s="107">
-        <v>3447682.3396549998</v>
+        <v>3443469.4991649999</v>
       </c>
       <c r="F66" s="105">
-        <v>680342.21379099996</v>
+        <v>681888.90184499999</v>
       </c>
       <c r="G66" s="106">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="H66" s="106">
-        <v>2025347.0722330001</v>
+        <v>2071007.3836729999</v>
       </c>
       <c r="I66" s="107">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="J66" s="108">
-        <v>15.214497</v>
+        <v>15.593488000000001</v>
       </c>
       <c r="K66" s="109">
-        <v>43.396735</v>
+        <v>42.762656</v>
       </c>
       <c r="L66" s="110">
-        <v>58.611232000000001</v>
+        <v>58.356144</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -4095,34 +4084,34 @@
         <v>132</v>
       </c>
       <c r="C67" s="98">
-        <v>666035.18400000001</v>
+        <v>681527.85699999996</v>
       </c>
       <c r="D67" s="99">
-        <v>239781.90413400001</v>
+        <v>248332.628937</v>
       </c>
       <c r="E67" s="100">
-        <v>426253.279866</v>
+        <v>433195.22806300002</v>
       </c>
       <c r="F67" s="98">
-        <v>26769.946888999999</v>
+        <v>26615.142722000001</v>
       </c>
       <c r="G67" s="99">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" s="99">
-        <v>103899.159462</v>
+        <v>108548.685872</v>
       </c>
       <c r="I67" s="100">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J67" s="101">
-        <v>7.1648389999999997</v>
+        <v>7.3023340000000001</v>
       </c>
       <c r="K67" s="102">
-        <v>62.988121</v>
+        <v>62.012120000000003</v>
       </c>
       <c r="L67" s="103">
-        <v>70.152959999999993</v>
+        <v>69.314453999999998</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -4131,34 +4120,34 @@
         <v>133</v>
       </c>
       <c r="C68" s="98">
-        <v>710124.81299999997</v>
+        <v>725044.83900000004</v>
       </c>
       <c r="D68" s="99">
-        <v>343325.75161199999</v>
+        <v>354023.02148400003</v>
       </c>
       <c r="E68" s="100">
-        <v>366799.06138799997</v>
+        <v>371021.81751600001</v>
       </c>
       <c r="F68" s="98">
-        <v>44268.436988000001</v>
+        <v>44559.603608999998</v>
       </c>
       <c r="G68" s="99">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H68" s="99">
-        <v>136753.15005900001</v>
+        <v>141844.481486</v>
       </c>
       <c r="I68" s="100">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J68" s="101">
-        <v>6.3436760000000003</v>
+        <v>6.4296660000000001</v>
       </c>
       <c r="K68" s="102">
-        <v>69.868812000000005</v>
+        <v>68.784954999999997</v>
       </c>
       <c r="L68" s="103">
-        <v>76.212487999999993</v>
+        <v>75.214620999999994</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4167,34 +4156,34 @@
         <v>134</v>
       </c>
       <c r="C69" s="98">
-        <v>315530.23700000002</v>
+        <v>324532.21899999998</v>
       </c>
       <c r="D69" s="99">
-        <v>111428.276081</v>
+        <v>116597.352511</v>
       </c>
       <c r="E69" s="100">
-        <v>204101.960919</v>
+        <v>207934.86648900001</v>
       </c>
       <c r="F69" s="98">
-        <v>10672.906595</v>
+        <v>11160.333968999999</v>
       </c>
       <c r="G69" s="99">
         <v>19</v>
       </c>
       <c r="H69" s="99">
-        <v>51037.633941</v>
+        <v>53389.789563999999</v>
       </c>
       <c r="I69" s="100">
         <v>14</v>
       </c>
       <c r="J69" s="101">
-        <v>5.2805260000000001</v>
+        <v>5.3191369999999996</v>
       </c>
       <c r="K69" s="102">
-        <v>76.418554999999998</v>
+        <v>75.054122000000007</v>
       </c>
       <c r="L69" s="103">
-        <v>81.699081000000007</v>
+        <v>80.373259000000004</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4203,34 +4192,34 @@
         <v>135</v>
       </c>
       <c r="C70" s="98">
-        <v>233773.823</v>
+        <v>241219.989</v>
       </c>
       <c r="D70" s="99">
-        <v>111829.499889</v>
+        <v>116601.84755000001</v>
       </c>
       <c r="E70" s="100">
-        <v>121944.32311100001</v>
+        <v>124618.14145</v>
       </c>
       <c r="F70" s="98">
-        <v>16974.050125000002</v>
+        <v>16685.744248999999</v>
       </c>
       <c r="G70" s="99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" s="99">
-        <v>55971.860432000001</v>
+        <v>59411.966751</v>
       </c>
       <c r="I70" s="100">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J70" s="101">
-        <v>5.5394670000000001</v>
+        <v>5.5903270000000003</v>
       </c>
       <c r="K70" s="102">
-        <v>78.073905999999994</v>
+        <v>77.025115999999997</v>
       </c>
       <c r="L70" s="103">
-        <v>83.613372999999996</v>
+        <v>82.615442999999999</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -4239,34 +4228,34 @@
         <v>136</v>
       </c>
       <c r="C71" s="98">
-        <v>441016.75400000002</v>
+        <v>451076.696</v>
       </c>
       <c r="D71" s="99">
-        <v>218631.297028</v>
+        <v>226373.25486300001</v>
       </c>
       <c r="E71" s="100">
-        <v>222385.45697200001</v>
+        <v>224703.44113699999</v>
       </c>
       <c r="F71" s="98">
-        <v>26950.512352000002</v>
+        <v>26853.12645</v>
       </c>
       <c r="G71" s="99">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" s="99">
-        <v>79884.970663999993</v>
+        <v>83665.376789000002</v>
       </c>
       <c r="I71" s="100">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J71" s="101">
-        <v>5.7379519999999999</v>
+        <v>5.7849449999999996</v>
       </c>
       <c r="K71" s="102">
-        <v>71.553250000000006</v>
+        <v>70.297196999999997</v>
       </c>
       <c r="L71" s="103">
-        <v>77.291202999999996</v>
+        <v>76.082143000000002</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -4275,34 +4264,34 @@
         <v>137</v>
       </c>
       <c r="C72" s="98">
-        <v>313725.02</v>
+        <v>321078.04599999997</v>
       </c>
       <c r="D72" s="99">
-        <v>89486.628559000004</v>
+        <v>93162.039818000005</v>
       </c>
       <c r="E72" s="100">
-        <v>224238.39144100001</v>
+        <v>227916.00618200001</v>
       </c>
       <c r="F72" s="98">
-        <v>9008.5539690000005</v>
+        <v>9322.9121109999996</v>
       </c>
       <c r="G72" s="99">
         <v>18</v>
       </c>
       <c r="H72" s="99">
-        <v>27773.796398999999</v>
+        <v>28804.119504999999</v>
       </c>
       <c r="I72" s="100">
         <v>8</v>
       </c>
       <c r="J72" s="101">
-        <v>5.3521260000000002</v>
+        <v>5.4331420000000001</v>
       </c>
       <c r="K72" s="102">
-        <v>70.259765999999999</v>
+        <v>69.140941999999995</v>
       </c>
       <c r="L72" s="103">
-        <v>75.611891999999997</v>
+        <v>74.574083999999999</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -4311,34 +4300,34 @@
         <v>138</v>
       </c>
       <c r="C73" s="98">
-        <v>406607.23100000003</v>
+        <v>417330.52500000002</v>
       </c>
       <c r="D73" s="99">
-        <v>193610.77246199999</v>
+        <v>200960.41149100001</v>
       </c>
       <c r="E73" s="100">
-        <v>212996.45853800001</v>
+        <v>216370.11350899999</v>
       </c>
       <c r="F73" s="98">
-        <v>28596.624124999998</v>
+        <v>27652.375143000001</v>
       </c>
       <c r="G73" s="99">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H73" s="99">
-        <v>84112.542012999998</v>
+        <v>89311.746060999998</v>
       </c>
       <c r="I73" s="100">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J73" s="101">
-        <v>7.1793250000000004</v>
+        <v>7.2933570000000003</v>
       </c>
       <c r="K73" s="102">
-        <v>63.078856999999999</v>
+        <v>62.291213999999997</v>
       </c>
       <c r="L73" s="103">
-        <v>70.258182000000005</v>
+        <v>69.584569999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -4347,34 +4336,34 @@
         <v>139</v>
       </c>
       <c r="C74" s="98">
-        <v>108405.25599999999</v>
+        <v>109723.008</v>
       </c>
       <c r="D74" s="99">
-        <v>76772.071676000007</v>
+        <v>78228.040712999995</v>
       </c>
       <c r="E74" s="100">
-        <v>31633.184324000002</v>
+        <v>31494.967286999999</v>
       </c>
       <c r="F74" s="98">
-        <v>8501.4491899999994</v>
+        <v>8653.4744429999992</v>
       </c>
       <c r="G74" s="99">
         <v>15</v>
       </c>
       <c r="H74" s="99">
-        <v>18537.919138000001</v>
+        <v>18882.876755000001</v>
       </c>
       <c r="I74" s="100">
         <v>10</v>
       </c>
       <c r="J74" s="101">
-        <v>9.8014670000000006</v>
+        <v>10.093477</v>
       </c>
       <c r="K74" s="102">
-        <v>49.302689000000001</v>
+        <v>48.50797</v>
       </c>
       <c r="L74" s="103">
-        <v>59.104154999999999</v>
+        <v>58.601447</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4383,34 +4372,34 @@
         <v>140</v>
       </c>
       <c r="C75" s="111">
-        <v>73291.606</v>
+        <v>75479.38</v>
       </c>
       <c r="D75" s="112">
-        <v>39787.924230999997</v>
+        <v>41417.724364000002</v>
       </c>
       <c r="E75" s="113">
-        <v>33503.681769000003</v>
+        <v>34061.655636000003</v>
       </c>
       <c r="F75" s="111">
-        <v>9559.6032479999994</v>
+        <v>8964.2949219999991</v>
       </c>
       <c r="G75" s="112">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H75" s="112">
-        <v>12344.026753</v>
+        <v>13814.72416</v>
       </c>
       <c r="I75" s="113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" s="114">
-        <v>6.5148450000000002</v>
+        <v>6.593985</v>
       </c>
       <c r="K75" s="115">
-        <v>68.720712000000006</v>
+        <v>67.571202</v>
       </c>
       <c r="L75" s="116">
-        <v>75.235557</v>
+        <v>74.165187000000003</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4419,34 +4408,34 @@
         <v>141</v>
       </c>
       <c r="C76" s="118">
-        <v>688732.9</v>
+        <v>693748.79099999997</v>
       </c>
       <c r="D76" s="119">
-        <v>356806.167158</v>
+        <v>363347.86885600002</v>
       </c>
       <c r="E76" s="120">
-        <v>331926.73284200003</v>
+        <v>330400.92214400001</v>
       </c>
       <c r="F76" s="118">
-        <v>43373.006221000003</v>
+        <v>44126.680574999998</v>
       </c>
       <c r="G76" s="119">
         <v>81</v>
       </c>
       <c r="H76" s="119">
-        <v>124516.00875399999</v>
+        <v>126892.006842</v>
       </c>
       <c r="I76" s="120">
         <v>39</v>
       </c>
       <c r="J76" s="121">
-        <v>11.57114</v>
+        <v>12.052059</v>
       </c>
       <c r="K76" s="122">
-        <v>34.269832999999998</v>
+        <v>33.710529999999999</v>
       </c>
       <c r="L76" s="123">
-        <v>45.840972999999998</v>
+        <v>45.762590000000003</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4455,34 +4444,34 @@
         <v>142</v>
       </c>
       <c r="C77" s="98">
-        <v>437176.05499999999</v>
+        <v>439814.88699999999</v>
       </c>
       <c r="D77" s="99">
-        <v>371267.50438699999</v>
+        <v>374370.02404699998</v>
       </c>
       <c r="E77" s="100">
-        <v>65908.550612999999</v>
+        <v>65444.862953000003</v>
       </c>
       <c r="F77" s="98">
-        <v>43502.14632</v>
+        <v>43938.095792</v>
       </c>
       <c r="G77" s="99">
         <v>86</v>
       </c>
       <c r="H77" s="99">
-        <v>179632.238354</v>
+        <v>181283.73907899999</v>
       </c>
       <c r="I77" s="100">
         <v>50</v>
       </c>
       <c r="J77" s="101">
-        <v>14.244849</v>
+        <v>14.638323</v>
       </c>
       <c r="K77" s="102">
-        <v>36.510990999999997</v>
+        <v>35.875988999999997</v>
       </c>
       <c r="L77" s="103">
-        <v>50.755839999999999</v>
+        <v>50.514311999999997</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4491,34 +4480,34 @@
         <v>143</v>
       </c>
       <c r="C78" s="98">
-        <v>450657.52299999999</v>
+        <v>450259.53399999999</v>
       </c>
       <c r="D78" s="99">
-        <v>340701.73425600003</v>
+        <v>341523.49577600003</v>
       </c>
       <c r="E78" s="100">
-        <v>109955.788744</v>
+        <v>108736.038224</v>
       </c>
       <c r="F78" s="98">
-        <v>51729.305024000001</v>
+        <v>51844.617185000003</v>
       </c>
       <c r="G78" s="99">
         <v>101</v>
       </c>
       <c r="H78" s="99">
-        <v>79208.451216000001</v>
+        <v>79484.488429999998</v>
       </c>
       <c r="I78" s="100">
         <v>33</v>
       </c>
       <c r="J78" s="101">
-        <v>31.969557999999999</v>
+        <v>32.618969</v>
       </c>
       <c r="K78" s="102">
-        <v>23.466117000000001</v>
+        <v>23.207073000000001</v>
       </c>
       <c r="L78" s="103">
-        <v>55.435673999999999</v>
+        <v>55.826042000000001</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4527,34 +4516,34 @@
         <v>144</v>
       </c>
       <c r="C79" s="105">
-        <v>1396301.7069999999</v>
+        <v>1400813.432</v>
       </c>
       <c r="D79" s="106">
-        <v>1140034.0683470001</v>
+        <v>1146891.0361629999</v>
       </c>
       <c r="E79" s="107">
-        <v>256267.638653</v>
+        <v>253922.39583699999</v>
       </c>
       <c r="F79" s="105">
-        <v>188027.60712500001</v>
+        <v>186206.89360400001</v>
       </c>
       <c r="G79" s="106">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H79" s="106">
-        <v>533586.82513799996</v>
+        <v>540159.43591500004</v>
       </c>
       <c r="I79" s="107">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J79" s="108">
-        <v>29.128160999999999</v>
+        <v>29.775711000000001</v>
       </c>
       <c r="K79" s="109">
-        <v>25.366743</v>
+        <v>25.020755999999999</v>
       </c>
       <c r="L79" s="110">
-        <v>54.494903999999998</v>
+        <v>54.796467</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4563,34 +4552,34 @@
         <v>145</v>
       </c>
       <c r="C80" s="118">
-        <v>137082.21599999999</v>
+        <v>140782.41200000001</v>
       </c>
       <c r="D80" s="119">
-        <v>84260.844738999993</v>
+        <v>86867.621299000006</v>
       </c>
       <c r="E80" s="120">
-        <v>52821.371261</v>
+        <v>53914.790700999998</v>
       </c>
       <c r="F80" s="118">
-        <v>12357.871807</v>
+        <v>11751.908149000001</v>
       </c>
       <c r="G80" s="119">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" s="119">
-        <v>21907.326062</v>
+        <v>23676.888158000002</v>
       </c>
       <c r="I80" s="120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J80" s="121">
-        <v>6.582586</v>
+        <v>6.698296</v>
       </c>
       <c r="K80" s="122">
-        <v>65.354541999999995</v>
+        <v>64.136494999999996</v>
       </c>
       <c r="L80" s="123">
-        <v>71.937128000000001</v>
+        <v>70.834790999999996</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4599,34 +4588,34 @@
         <v>146</v>
       </c>
       <c r="C81" s="98">
-        <v>516599.84</v>
+        <v>522258.886</v>
       </c>
       <c r="D81" s="99">
-        <v>361068.18066000001</v>
+        <v>366186.21681200003</v>
       </c>
       <c r="E81" s="100">
-        <v>155531.65934000001</v>
+        <v>156072.669188</v>
       </c>
       <c r="F81" s="98">
-        <v>67666.927863999997</v>
+        <v>68619.955403999993</v>
       </c>
       <c r="G81" s="99">
         <v>130</v>
       </c>
       <c r="H81" s="99">
-        <v>133210.310929</v>
+        <v>135373.52707700001</v>
       </c>
       <c r="I81" s="100">
         <v>56</v>
       </c>
       <c r="J81" s="101">
-        <v>8.7797900000000002</v>
+        <v>9.1114479999999993</v>
       </c>
       <c r="K81" s="102">
-        <v>39.162821000000001</v>
+        <v>38.626626000000002</v>
       </c>
       <c r="L81" s="103">
-        <v>47.942610999999999</v>
+        <v>47.738073999999997</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4635,34 +4624,34 @@
         <v>147</v>
       </c>
       <c r="C82" s="98">
-        <v>1341912.3929999999</v>
+        <v>1372557.5989999999</v>
       </c>
       <c r="D82" s="99">
-        <v>581502.22083899996</v>
+        <v>601662.20722400001</v>
       </c>
       <c r="E82" s="100">
-        <v>760410.17216099997</v>
+        <v>770895.39177600003</v>
       </c>
       <c r="F82" s="98">
-        <v>72219.008858000001</v>
+        <v>72564.951853000006</v>
       </c>
       <c r="G82" s="99">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H82" s="99">
-        <v>234771.82722499999</v>
+        <v>244673.211472</v>
       </c>
       <c r="I82" s="100">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J82" s="101">
-        <v>6.5077480000000003</v>
+        <v>6.601286</v>
       </c>
       <c r="K82" s="102">
-        <v>67.506117000000003</v>
+        <v>66.502595999999997</v>
       </c>
       <c r="L82" s="103">
-        <v>74.013863999999998</v>
+        <v>73.103881999999999</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4671,34 +4660,34 @@
         <v>148</v>
       </c>
       <c r="C83" s="105">
-        <v>6049510.9560000002</v>
+        <v>6079765.4570000004</v>
       </c>
       <c r="D83" s="106">
-        <v>3570591.8191069998</v>
+        <v>3617178.8095010002</v>
       </c>
       <c r="E83" s="107">
-        <v>2478919.136893</v>
+        <v>2462586.6474990002</v>
       </c>
       <c r="F83" s="105">
-        <v>528098.40526200004</v>
+        <v>528952.08643999998</v>
       </c>
       <c r="G83" s="106">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="H83" s="106">
-        <v>1635457.6080179999</v>
+        <v>1667283.756967</v>
       </c>
       <c r="I83" s="107">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="J83" s="108">
-        <v>20.436544999999999</v>
+        <v>20.954287999999998</v>
       </c>
       <c r="K83" s="109">
-        <v>33.249344000000001</v>
+        <v>32.785705999999998</v>
       </c>
       <c r="L83" s="110">
-        <v>53.685889000000003</v>
+        <v>53.739995</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4707,34 +4696,34 @@
         <v>149</v>
       </c>
       <c r="C84" s="118">
-        <v>476916.31800000003</v>
+        <v>490205.85800000001</v>
       </c>
       <c r="D84" s="119">
-        <v>171631.929095</v>
+        <v>178957.65058399999</v>
       </c>
       <c r="E84" s="120">
-        <v>305284.388905</v>
+        <v>311248.20741600002</v>
       </c>
       <c r="F84" s="118">
-        <v>19188.028869000002</v>
+        <v>18952.631506999998</v>
       </c>
       <c r="G84" s="119">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84" s="119">
-        <v>71337.173718000005</v>
+        <v>75327.345709999994</v>
       </c>
       <c r="I84" s="120">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J84" s="121">
-        <v>5.2732400000000004</v>
+        <v>5.3101500000000001</v>
       </c>
       <c r="K84" s="122">
-        <v>78.762652000000003</v>
+        <v>77.483407999999997</v>
       </c>
       <c r="L84" s="123">
-        <v>84.035892000000004</v>
+        <v>82.793558000000004</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4743,34 +4732,34 @@
         <v>150</v>
       </c>
       <c r="C85" s="98">
-        <v>130858.387</v>
+        <v>134402.239</v>
       </c>
       <c r="D85" s="99">
-        <v>57097.294521999997</v>
+        <v>59203.290370000002</v>
       </c>
       <c r="E85" s="100">
-        <v>73761.092478000006</v>
+        <v>75198.948629999999</v>
       </c>
       <c r="F85" s="98">
-        <v>9614.9561229999999</v>
+        <v>9980.439402</v>
       </c>
       <c r="G85" s="99">
         <v>16</v>
       </c>
       <c r="H85" s="99">
-        <v>22299.938707000001</v>
+        <v>23121.140972000001</v>
       </c>
       <c r="I85" s="100">
         <v>9</v>
       </c>
       <c r="J85" s="101">
-        <v>8.3688479999999998</v>
+        <v>8.5254480000000008</v>
       </c>
       <c r="K85" s="102">
-        <v>56.733226000000002</v>
+        <v>55.774931000000002</v>
       </c>
       <c r="L85" s="103">
-        <v>65.102074999999999</v>
+        <v>64.300379000000007</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4779,34 +4768,34 @@
         <v>151</v>
       </c>
       <c r="C86" s="98">
-        <v>747967.88699999999</v>
+        <v>763992.79700000002</v>
       </c>
       <c r="D86" s="99">
-        <v>373723.68167100003</v>
+        <v>385918.50258500001</v>
       </c>
       <c r="E86" s="100">
-        <v>374244.20532900002</v>
+        <v>378074.29441500001</v>
       </c>
       <c r="F86" s="98">
-        <v>51073.425453999997</v>
+        <v>50698.514052999999</v>
       </c>
       <c r="G86" s="99">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H86" s="99">
-        <v>150743.50176000001</v>
+        <v>157556.798442</v>
       </c>
       <c r="I86" s="100">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J86" s="101">
-        <v>6.5304380000000002</v>
+        <v>6.6143729999999996</v>
       </c>
       <c r="K86" s="102">
-        <v>65.551400999999998</v>
+        <v>64.537396999999999</v>
       </c>
       <c r="L86" s="103">
-        <v>72.081839000000002</v>
+        <v>71.151769999999999</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4815,34 +4804,34 @@
         <v>152</v>
       </c>
       <c r="C87" s="98">
-        <v>2329777.602</v>
+        <v>2352850.6719999998</v>
       </c>
       <c r="D87" s="99">
-        <v>885355.13542099996</v>
+        <v>905676.366331</v>
       </c>
       <c r="E87" s="100">
-        <v>1444422.466579</v>
+        <v>1447174.3056689999</v>
       </c>
       <c r="F87" s="98">
-        <v>102938.420743</v>
+        <v>105280.916041</v>
       </c>
       <c r="G87" s="99">
         <v>187</v>
       </c>
       <c r="H87" s="99">
-        <v>397324.36925799999</v>
+        <v>406923.70490800001</v>
       </c>
       <c r="I87" s="100">
         <v>103</v>
       </c>
       <c r="J87" s="101">
-        <v>8.8930229999999995</v>
+        <v>9.1310459999999996</v>
       </c>
       <c r="K87" s="102">
-        <v>48.133420000000001</v>
+        <v>47.417572999999997</v>
       </c>
       <c r="L87" s="103">
-        <v>57.026443</v>
+        <v>56.548619000000002</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4851,34 +4840,34 @@
         <v>153</v>
       </c>
       <c r="C88" s="98">
-        <v>125290.761</v>
+        <v>126951.171</v>
       </c>
       <c r="D88" s="99">
-        <v>90531.058917000002</v>
+        <v>92329.751652000006</v>
       </c>
       <c r="E88" s="100">
-        <v>34759.702082000003</v>
+        <v>34621.419348000003</v>
       </c>
       <c r="F88" s="98">
-        <v>12296.587702999999</v>
+        <v>12551.329666</v>
       </c>
       <c r="G88" s="99">
         <v>19</v>
       </c>
       <c r="H88" s="99">
-        <v>28778.327161000001</v>
+        <v>29363.433182000001</v>
       </c>
       <c r="I88" s="100">
         <v>9</v>
       </c>
       <c r="J88" s="101">
-        <v>9.2571530000000006</v>
+        <v>9.531034</v>
       </c>
       <c r="K88" s="102">
-        <v>45.681663999999998</v>
+        <v>45.047860999999997</v>
       </c>
       <c r="L88" s="103">
-        <v>54.938817</v>
+        <v>54.578895000000003</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4887,34 +4876,34 @@
         <v>154</v>
       </c>
       <c r="C89" s="98">
-        <v>2697262.9920000001</v>
+        <v>2702961.6469999999</v>
       </c>
       <c r="D89" s="99">
-        <v>1846332.591029</v>
+        <v>1869651.2568349999</v>
       </c>
       <c r="E89" s="100">
-        <v>850930.40097099997</v>
+        <v>833310.39016499999</v>
       </c>
       <c r="F89" s="98">
-        <v>291396.31168799999</v>
+        <v>292559.110896</v>
       </c>
       <c r="G89" s="99">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H89" s="99">
-        <v>843142.88832100003</v>
+        <v>860614.31895999995</v>
       </c>
       <c r="I89" s="100">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J89" s="101">
-        <v>15.586441000000001</v>
+        <v>16.094049999999999</v>
       </c>
       <c r="K89" s="102">
-        <v>35.814849000000002</v>
+        <v>35.317649000000003</v>
       </c>
       <c r="L89" s="103">
-        <v>51.401290000000003</v>
+        <v>51.411698999999999</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4923,34 +4912,34 @@
         <v>155</v>
       </c>
       <c r="C90" s="105">
-        <v>1380038.912</v>
+        <v>1383534.66</v>
       </c>
       <c r="D90" s="106">
-        <v>1117921.5303130001</v>
+        <v>1123771.0491760001</v>
       </c>
       <c r="E90" s="107">
-        <v>262117.38168699999</v>
+        <v>259763.610824</v>
       </c>
       <c r="F90" s="105">
-        <v>187398.050349</v>
+        <v>185298.50438500001</v>
       </c>
       <c r="G90" s="106">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H90" s="106">
-        <v>497800.67912400002</v>
+        <v>503869.12619799998</v>
       </c>
       <c r="I90" s="107">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J90" s="108">
-        <v>25.239563</v>
+        <v>25.833976</v>
       </c>
       <c r="K90" s="109">
-        <v>25.770346</v>
+        <v>25.452608000000001</v>
       </c>
       <c r="L90" s="110">
-        <v>51.009909</v>
+        <v>51.286583999999998</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4959,34 +4948,34 @@
         <v>156</v>
       </c>
       <c r="C91" s="118">
-        <v>785630.80700000003</v>
+        <v>807288.24899999995</v>
       </c>
       <c r="D91" s="119">
-        <v>287480.73169599997</v>
+        <v>299802.70678900002</v>
       </c>
       <c r="E91" s="120">
-        <v>498150.075304</v>
+        <v>507485.54221099999</v>
       </c>
       <c r="F91" s="118">
-        <v>34444.826567999997</v>
+        <v>33809.229303</v>
       </c>
       <c r="G91" s="119">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H91" s="119">
-        <v>106853.63501</v>
+        <v>113375.476499</v>
       </c>
       <c r="I91" s="120">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J91" s="121">
-        <v>5.4928549999999996</v>
+        <v>5.5265389999999996</v>
       </c>
       <c r="K91" s="122">
-        <v>75.767774000000003</v>
+        <v>74.601718000000005</v>
       </c>
       <c r="L91" s="123">
-        <v>81.260627999999997</v>
+        <v>80.128258000000002</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4995,34 +4984,34 @@
         <v>157</v>
       </c>
       <c r="C92" s="98">
-        <v>375193.87</v>
+        <v>380489.342</v>
       </c>
       <c r="D92" s="99">
-        <v>135210.00868900001</v>
+        <v>139438.73689199999</v>
       </c>
       <c r="E92" s="100">
-        <v>239983.86131099999</v>
+        <v>241050.60510799999</v>
       </c>
       <c r="F92" s="98">
-        <v>13214.121166999999</v>
+        <v>13742.26837</v>
       </c>
       <c r="G92" s="99">
         <v>19</v>
       </c>
       <c r="H92" s="99">
-        <v>52817.274759</v>
+        <v>54501.261124999997</v>
       </c>
       <c r="I92" s="100">
         <v>11</v>
       </c>
       <c r="J92" s="101">
-        <v>7.8625020000000001</v>
+        <v>8.0381070000000001</v>
       </c>
       <c r="K92" s="102">
-        <v>54.201338</v>
+        <v>53.629657000000002</v>
       </c>
       <c r="L92" s="103">
-        <v>62.063839000000002</v>
+        <v>61.667763999999998</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -5031,16 +5020,16 @@
         <v>158</v>
       </c>
       <c r="C93" s="98">
-        <v>5158.4660000000003</v>
+        <v>5229.9799999999996</v>
       </c>
       <c r="D93" s="99">
-        <v>2362.4918400000001</v>
+        <v>2412.0815940000002</v>
       </c>
       <c r="E93" s="100">
-        <v>2795.9741600000002</v>
+        <v>2817.8984059999998</v>
       </c>
       <c r="F93" s="98">
-        <v>667.263373</v>
+        <v>689.27570800000001</v>
       </c>
       <c r="G93" s="99">
         <v>1</v>
@@ -5052,13 +5041,13 @@
         <v>17</v>
       </c>
       <c r="J93" s="101">
-        <v>9.8831399999999991</v>
+        <v>10.13856</v>
       </c>
       <c r="K93" s="102">
-        <v>47.856248999999998</v>
+        <v>46.947527999999998</v>
       </c>
       <c r="L93" s="103">
-        <v>57.739389000000003</v>
+        <v>57.086087999999997</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -5067,34 +5056,34 @@
         <v>159</v>
       </c>
       <c r="C94" s="98">
-        <v>62261.936999999998</v>
+        <v>62757.375</v>
       </c>
       <c r="D94" s="99">
-        <v>37908.813585000004</v>
+        <v>38363.319226</v>
       </c>
       <c r="E94" s="100">
-        <v>24353.123414999998</v>
+        <v>24394.055774</v>
       </c>
       <c r="F94" s="98">
-        <v>2737.0890559999998</v>
+        <v>2761.4103730000002</v>
       </c>
       <c r="G94" s="99">
         <v>5</v>
       </c>
       <c r="H94" s="99">
-        <v>14300.328702999999</v>
+        <v>14476.274488999999</v>
       </c>
       <c r="I94" s="100">
         <v>4</v>
       </c>
       <c r="J94" s="101">
-        <v>12.008504</v>
+        <v>12.418077</v>
       </c>
       <c r="K94" s="102">
-        <v>41.031300999999999</v>
+        <v>40.541992</v>
       </c>
       <c r="L94" s="103">
-        <v>53.039805000000001</v>
+        <v>52.960068999999997</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -5103,34 +5092,34 @@
         <v>160</v>
       </c>
       <c r="C95" s="98">
-        <v>378093.33399999997</v>
+        <v>388718.22</v>
       </c>
       <c r="D95" s="99">
-        <v>101253.194668</v>
+        <v>105896.79960499999</v>
       </c>
       <c r="E95" s="100">
-        <v>276840.13933199999</v>
+        <v>282821.42039500002</v>
       </c>
       <c r="F95" s="98">
-        <v>7626.0225600000003</v>
+        <v>6903.2457899999999</v>
       </c>
       <c r="G95" s="99">
+        <v>12</v>
+      </c>
+      <c r="H95" s="99">
+        <v>30724.424508</v>
+      </c>
+      <c r="I95" s="100">
         <v>13</v>
       </c>
-      <c r="H95" s="99">
-        <v>28431.640654999999</v>
-      </c>
-      <c r="I95" s="100">
-        <v>12</v>
-      </c>
       <c r="J95" s="101">
-        <v>5.1618329999999997</v>
+        <v>5.1958310000000001</v>
       </c>
       <c r="K95" s="102">
-        <v>75.605853999999994</v>
+        <v>74.220201000000003</v>
       </c>
       <c r="L95" s="103">
-        <v>80.767686999999995</v>
+        <v>79.416032999999999</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5139,34 +5128,34 @@
         <v>161</v>
       </c>
       <c r="C96" s="105">
-        <v>201091.625</v>
+        <v>204072.15</v>
       </c>
       <c r="D96" s="106">
-        <v>86023.467191000003</v>
+        <v>87918.689282000007</v>
       </c>
       <c r="E96" s="107">
-        <v>115068.157809</v>
+        <v>116153.460718</v>
       </c>
       <c r="F96" s="105">
-        <v>9873.0046590000002</v>
+        <v>10085.786583999999</v>
       </c>
       <c r="G96" s="106">
         <v>21</v>
       </c>
       <c r="H96" s="106">
-        <v>30602.503559000001</v>
+        <v>31293.179076</v>
       </c>
       <c r="I96" s="107">
         <v>16</v>
       </c>
       <c r="J96" s="108">
-        <v>11.390269999999999</v>
+        <v>11.823229</v>
       </c>
       <c r="K96" s="109">
-        <v>45.105074999999999</v>
+        <v>44.643445999999997</v>
       </c>
       <c r="L96" s="110">
-        <v>56.495345</v>
+        <v>56.466676</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -5175,34 +5164,34 @@
         <v>162</v>
       </c>
       <c r="C97" s="118">
-        <v>1129283.226</v>
+        <v>1158179.1610000001</v>
       </c>
       <c r="D97" s="119">
-        <v>463672.25402599998</v>
+        <v>481997.52712599997</v>
       </c>
       <c r="E97" s="120">
-        <v>665610.97197399999</v>
+        <v>676181.63387400005</v>
       </c>
       <c r="F97" s="118">
-        <v>61213.200202</v>
+        <v>60448.724155999997</v>
       </c>
       <c r="G97" s="119">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H97" s="119">
-        <v>176509.14453200001</v>
+        <v>186408.00423699999</v>
       </c>
       <c r="I97" s="120">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J97" s="121">
-        <v>5.5457090000000004</v>
+        <v>5.5868659999999997</v>
       </c>
       <c r="K97" s="122">
-        <v>73.850254000000007</v>
+        <v>72.701954999999998</v>
       </c>
       <c r="L97" s="123">
-        <v>79.395962999999995</v>
+        <v>78.288820999999999</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5211,34 +5200,34 @@
         <v>163</v>
       </c>
       <c r="C98" s="105">
-        <v>865723.65599999996</v>
+        <v>878940.55599999998</v>
       </c>
       <c r="D98" s="106">
-        <v>407526.41667399998</v>
+        <v>417432.14013700001</v>
       </c>
       <c r="E98" s="107">
-        <v>458197.23932599998</v>
+        <v>461508.41586299997</v>
       </c>
       <c r="F98" s="105">
-        <v>48943.279632999998</v>
+        <v>50181.576637999999</v>
       </c>
       <c r="G98" s="106">
         <v>83</v>
       </c>
       <c r="H98" s="106">
-        <v>172374.576474</v>
+        <v>176653.39612700001</v>
       </c>
       <c r="I98" s="107">
         <v>49</v>
       </c>
       <c r="J98" s="108">
-        <v>8.575704</v>
+        <v>8.7783709999999999</v>
       </c>
       <c r="K98" s="109">
-        <v>50.979371</v>
+        <v>50.123702000000002</v>
       </c>
       <c r="L98" s="110">
-        <v>59.555075000000002</v>
+        <v>58.902073000000001</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -5355,10 +5344,8 @@
       <c r="K106" s="128"/>
       <c r="L106" s="128"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B107" s="130" t="s">
-        <v>169</v>
-      </c>
+    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="129"/>
       <c r="C107" s="127"/>
       <c r="D107" s="127"/>
       <c r="E107" s="127"/>
@@ -5371,7 +5358,9 @@
       <c r="L107" s="128"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="134" t="s">
+        <v>169</v>
+      </c>
       <c r="C108" s="127"/>
       <c r="D108" s="127"/>
       <c r="E108" s="127"/>
@@ -5384,9 +5373,7 @@
       <c r="L108" s="128"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="135" t="s">
-        <v>171</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="127"/>
       <c r="D109" s="127"/>
       <c r="E109" s="127"/>
@@ -5399,8 +5386,8 @@
       <c r="L109" s="128"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="135" t="s">
-        <v>172</v>
+      <c r="B110" s="134" t="s">
+        <v>170</v>
       </c>
       <c r="C110" s="127"/>
       <c r="D110" s="127"/>
@@ -5414,8 +5401,8 @@
       <c r="L110" s="128"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="135" t="s">
-        <v>173</v>
+      <c r="B111" s="134" t="s">
+        <v>171</v>
       </c>
       <c r="C111" s="127"/>
       <c r="D111" s="127"/>
@@ -5429,8 +5416,8 @@
       <c r="L111" s="128"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>170</v>
+      <c r="B112" s="134" t="s">
+        <v>173</v>
       </c>
       <c r="C112" s="127"/>
       <c r="D112" s="127"/>
@@ -5444,7 +5431,9 @@
       <c r="L112" s="128"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="131"/>
+      <c r="B113" s="134" t="s">
+        <v>172</v>
+      </c>
       <c r="C113" s="127"/>
       <c r="D113" s="127"/>
       <c r="E113" s="127"/>
@@ -5456,13 +5445,26 @@
       <c r="K113" s="128"/>
       <c r="L113" s="128"/>
     </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="130"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="128"/>
+      <c r="K114" s="128"/>
+      <c r="L114" s="128"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{B96A7D6C-2888-4BD5-86A5-502B3494A686}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{BCE40942-7764-49B1-B733-E09847A5BA2A}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{24457F82-B3BF-4757-A442-6E25E01D7C4F}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0091183C-E53E-4F80-A077-5CEF753185D5}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{20A8A213-A34C-4B2E-A825-C05F3D6A6A18}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{A05BB116-9721-4F27-9053-479F7DEDF875}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{750D6E0C-3FD9-41AF-842F-81167B91A48B}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{A867B9E4-A0D3-4ED3-8584-176626041B2A}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{613A6CC9-B9F4-4E49-91DB-2732087F7B34}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{EA92AF11-A62C-4683-B2C2-B9D575D5B683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId6"/>
